--- a/nba_roy_winners.xlsx
+++ b/nba_roy_winners.xlsx
@@ -8463,6 +8463,9 @@
       <c r="AB49">
         <v>0.465</v>
       </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
       <c r="AF49">
         <v>5.9</v>
       </c>
@@ -8600,6 +8603,9 @@
       <c r="AB50">
         <v>0.526</v>
       </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
       <c r="AF50">
         <v>9.699999999999999</v>
       </c>
@@ -8737,6 +8743,9 @@
       <c r="AB51">
         <v>0.52</v>
       </c>
+      <c r="AE51">
+        <v>0</v>
+      </c>
       <c r="AF51">
         <v>7.1</v>
       </c>
@@ -8871,6 +8880,9 @@
       <c r="AB52">
         <v>0.469</v>
       </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
       <c r="AF52">
         <v>7.9</v>
       </c>
@@ -9005,6 +9017,9 @@
       <c r="AB53">
         <v>0.442</v>
       </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
       <c r="AF53">
         <v>6.1</v>
       </c>
@@ -9139,6 +9154,9 @@
       <c r="AB54">
         <v>0.421</v>
       </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
       <c r="AF54">
         <v>6.5</v>
       </c>
@@ -9273,6 +9291,9 @@
       <c r="AB55">
         <v>0.452</v>
       </c>
+      <c r="AE55">
+        <v>0</v>
+      </c>
       <c r="AF55">
         <v>7.3</v>
       </c>
@@ -9395,6 +9416,9 @@
       <c r="AB56">
         <v>0.427</v>
       </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
       <c r="AF56">
         <v>9.6</v>
       </c>
@@ -9517,6 +9541,9 @@
       <c r="AB57">
         <v>0.422</v>
       </c>
+      <c r="AE57">
+        <v>0</v>
+      </c>
       <c r="AF57">
         <v>6.8</v>
       </c>
@@ -9639,6 +9666,9 @@
       <c r="AB58">
         <v>0.443</v>
       </c>
+      <c r="AE58">
+        <v>0</v>
+      </c>
       <c r="AF58">
         <v>9.6</v>
       </c>
@@ -9761,6 +9791,9 @@
       <c r="AB59">
         <v>0.518</v>
       </c>
+      <c r="AE59">
+        <v>0</v>
+      </c>
       <c r="AF59">
         <v>11.4</v>
       </c>
@@ -9883,6 +9916,9 @@
       <c r="AB60">
         <v>0.476</v>
       </c>
+      <c r="AE60">
+        <v>0</v>
+      </c>
       <c r="AF60">
         <v>5.2</v>
       </c>
@@ -10005,6 +10041,9 @@
       <c r="AB61">
         <v>0.453</v>
       </c>
+      <c r="AE61">
+        <v>0</v>
+      </c>
       <c r="AF61">
         <v>9</v>
       </c>
@@ -10127,6 +10166,9 @@
       <c r="AB62">
         <v>0.436</v>
       </c>
+      <c r="AE62">
+        <v>0</v>
+      </c>
       <c r="AF62">
         <v>8.300000000000001</v>
       </c>
@@ -10252,6 +10294,9 @@
       <c r="AB63">
         <v>0.439</v>
       </c>
+      <c r="AE63">
+        <v>0</v>
+      </c>
       <c r="AF63">
         <v>9.300000000000001</v>
       </c>
@@ -10374,6 +10419,9 @@
       <c r="AB64">
         <v>0.432</v>
       </c>
+      <c r="AE64">
+        <v>0</v>
+      </c>
       <c r="AF64">
         <v>7.9</v>
       </c>
@@ -10496,6 +10544,9 @@
       <c r="AB65">
         <v>0.527</v>
       </c>
+      <c r="AE65">
+        <v>0</v>
+      </c>
       <c r="AF65">
         <v>6.9</v>
       </c>
@@ -10617,6 +10668,9 @@
       </c>
       <c r="AB66">
         <v>0.408</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>8.6</v>

--- a/nba_roy_winners.xlsx
+++ b/nba_roy_winners.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="284">
   <si>
     <t>year_x</t>
   </si>
@@ -857,6 +857,9 @@
   </si>
   <si>
     <t>NBA</t>
+  </si>
+  <si>
+    <t>N/A - Stat tracked as of the 1973-74 NBA Season</t>
   </si>
   <si>
     <t>Yes</t>
@@ -1521,10 +1524,10 @@
         <v>213</v>
       </c>
       <c r="AW2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AX2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:50">
@@ -1670,10 +1673,10 @@
         <v>214</v>
       </c>
       <c r="AW3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:50">
@@ -1819,10 +1822,10 @@
         <v>215</v>
       </c>
       <c r="AW4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:50">
@@ -1968,10 +1971,10 @@
         <v>216</v>
       </c>
       <c r="AW5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:50">
@@ -2117,10 +2120,10 @@
         <v>217</v>
       </c>
       <c r="AW6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:50">
@@ -2266,10 +2269,10 @@
         <v>218</v>
       </c>
       <c r="AW7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:50">
@@ -2415,10 +2418,10 @@
         <v>219</v>
       </c>
       <c r="AW8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:50">
@@ -2564,10 +2567,10 @@
         <v>220</v>
       </c>
       <c r="AW9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:50">
@@ -2713,10 +2716,10 @@
         <v>221</v>
       </c>
       <c r="AW10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AX10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:50">
@@ -2862,10 +2865,10 @@
         <v>222</v>
       </c>
       <c r="AW11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:50">
@@ -3011,10 +3014,10 @@
         <v>223</v>
       </c>
       <c r="AW12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:50">
@@ -3160,10 +3163,10 @@
         <v>224</v>
       </c>
       <c r="AW13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:50">
@@ -3309,10 +3312,10 @@
         <v>225</v>
       </c>
       <c r="AW14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:50">
@@ -3458,10 +3461,10 @@
         <v>226</v>
       </c>
       <c r="AW15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AX15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:50">
@@ -3607,10 +3610,10 @@
         <v>227</v>
       </c>
       <c r="AW16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:50">
@@ -3756,10 +3759,10 @@
         <v>228</v>
       </c>
       <c r="AW17" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX17" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:50">
@@ -3905,10 +3908,10 @@
         <v>229</v>
       </c>
       <c r="AW18" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX18" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:50">
@@ -4054,10 +4057,10 @@
         <v>230</v>
       </c>
       <c r="AW19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:50">
@@ -4203,10 +4206,10 @@
         <v>231</v>
       </c>
       <c r="AW20" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX20" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:50">
@@ -4352,10 +4355,10 @@
         <v>232</v>
       </c>
       <c r="AW21" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AX21" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:50">
@@ -4501,10 +4504,10 @@
         <v>233</v>
       </c>
       <c r="AW22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:50">
@@ -4650,10 +4653,10 @@
         <v>234</v>
       </c>
       <c r="AW23" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX23" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:50">
@@ -4799,10 +4802,10 @@
         <v>235</v>
       </c>
       <c r="AW24" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX24" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:50">
@@ -4948,10 +4951,10 @@
         <v>236</v>
       </c>
       <c r="AW25" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX25" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:50">
@@ -5097,10 +5100,10 @@
         <v>237</v>
       </c>
       <c r="AW26" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AX26" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:50">
@@ -5246,10 +5249,10 @@
         <v>237</v>
       </c>
       <c r="AW27" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX27" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:50">
@@ -5395,10 +5398,10 @@
         <v>238</v>
       </c>
       <c r="AW28" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX28" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:50">
@@ -5544,10 +5547,10 @@
         <v>239</v>
       </c>
       <c r="AW29" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AX29" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:50">
@@ -5693,10 +5696,10 @@
         <v>240</v>
       </c>
       <c r="AW30" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX30" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:50">
@@ -5842,10 +5845,10 @@
         <v>241</v>
       </c>
       <c r="AW31" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX31" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="1:50">
@@ -5991,10 +5994,10 @@
         <v>242</v>
       </c>
       <c r="AW32" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX32" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="1:50">
@@ -6140,10 +6143,10 @@
         <v>242</v>
       </c>
       <c r="AW33" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX33" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:50">
@@ -6289,10 +6292,10 @@
         <v>243</v>
       </c>
       <c r="AW34" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX34" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:50">
@@ -6438,10 +6441,10 @@
         <v>244</v>
       </c>
       <c r="AW35" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AX35" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36" spans="1:50">
@@ -6590,10 +6593,10 @@
         <v>245</v>
       </c>
       <c r="AW36" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AX36" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:50">
@@ -6739,10 +6742,10 @@
         <v>246</v>
       </c>
       <c r="AW37" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AX37" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:50">
@@ -6888,10 +6891,10 @@
         <v>247</v>
       </c>
       <c r="AW38" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AX38" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:50">
@@ -7037,10 +7040,10 @@
         <v>248</v>
       </c>
       <c r="AW39" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX39" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:50">
@@ -7186,10 +7189,10 @@
         <v>249</v>
       </c>
       <c r="AW40" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AX40" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:50">
@@ -7335,10 +7338,10 @@
         <v>250</v>
       </c>
       <c r="AW41" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX41" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="1:50">
@@ -7487,10 +7490,10 @@
         <v>251</v>
       </c>
       <c r="AW42" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX42" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43" spans="1:50">
@@ -7636,10 +7639,10 @@
         <v>252</v>
       </c>
       <c r="AW43" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX43" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="1:50">
@@ -7785,10 +7788,10 @@
         <v>253</v>
       </c>
       <c r="AW44" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AX44" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" spans="1:50">
@@ -7934,10 +7937,10 @@
         <v>254</v>
       </c>
       <c r="AW45" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AX45" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" spans="1:50">
@@ -8083,10 +8086,10 @@
         <v>255</v>
       </c>
       <c r="AW46" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AX46" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="47" spans="1:50">
@@ -8229,10 +8232,10 @@
         <v>256</v>
       </c>
       <c r="AW47" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX47" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="48" spans="1:50">
@@ -8378,10 +8381,10 @@
         <v>257</v>
       </c>
       <c r="AW48" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AX48" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49" spans="1:50">
@@ -8518,10 +8521,10 @@
         <v>258</v>
       </c>
       <c r="AW49" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX49" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:50">
@@ -8658,10 +8661,10 @@
         <v>259</v>
       </c>
       <c r="AW50" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX50" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="51" spans="1:50">
@@ -8795,10 +8798,10 @@
         <v>260</v>
       </c>
       <c r="AW51" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX51" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="52" spans="1:50">
@@ -8932,10 +8935,10 @@
         <v>261</v>
       </c>
       <c r="AW52" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX52" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53" spans="1:50">
@@ -9069,10 +9072,10 @@
         <v>262</v>
       </c>
       <c r="AW53" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX53" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="54" spans="1:50">
@@ -9206,10 +9209,10 @@
         <v>263</v>
       </c>
       <c r="AW54" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX54" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="55" spans="1:50">
@@ -9321,6 +9324,12 @@
       <c r="AP55">
         <v>1.7</v>
       </c>
+      <c r="AQ55" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR55" t="s">
+        <v>281</v>
+      </c>
       <c r="AT55">
         <v>3.2</v>
       </c>
@@ -9331,10 +9340,10 @@
         <v>264</v>
       </c>
       <c r="AW55" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX55" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="56" spans="1:50">
@@ -9446,6 +9455,12 @@
       <c r="AP56">
         <v>4.3</v>
       </c>
+      <c r="AQ56" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR56" t="s">
+        <v>281</v>
+      </c>
       <c r="AT56">
         <v>2.3</v>
       </c>
@@ -9456,10 +9471,10 @@
         <v>265</v>
       </c>
       <c r="AW56" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AX56" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="57" spans="1:50">
@@ -9571,6 +9586,12 @@
       <c r="AP57">
         <v>2.8</v>
       </c>
+      <c r="AQ57" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR57" t="s">
+        <v>281</v>
+      </c>
       <c r="AT57">
         <v>4.3</v>
       </c>
@@ -9581,10 +9602,10 @@
         <v>266</v>
       </c>
       <c r="AW57" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AX57" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="1:50">
@@ -9696,6 +9717,12 @@
       <c r="AP58">
         <v>4.8</v>
       </c>
+      <c r="AQ58" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR58" t="s">
+        <v>281</v>
+      </c>
       <c r="AT58">
         <v>2.4</v>
       </c>
@@ -9706,10 +9733,10 @@
         <v>266</v>
       </c>
       <c r="AW58" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX58" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="59" spans="1:50">
@@ -9821,6 +9848,12 @@
       <c r="AP59">
         <v>4.1</v>
       </c>
+      <c r="AQ59" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR59" t="s">
+        <v>281</v>
+      </c>
       <c r="AT59">
         <v>3.5</v>
       </c>
@@ -9831,10 +9864,10 @@
         <v>267</v>
       </c>
       <c r="AW59" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AX59" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="60" spans="1:50">
@@ -9946,6 +9979,12 @@
       <c r="AP60">
         <v>2.6</v>
       </c>
+      <c r="AQ60" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR60" t="s">
+        <v>281</v>
+      </c>
       <c r="AT60">
         <v>3.4</v>
       </c>
@@ -9956,10 +9995,10 @@
         <v>268</v>
       </c>
       <c r="AW60" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AX60" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="61" spans="1:50">
@@ -10071,6 +10110,12 @@
       <c r="AP61">
         <v>4.3</v>
       </c>
+      <c r="AQ61" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR61" t="s">
+        <v>281</v>
+      </c>
       <c r="AT61">
         <v>3.4</v>
       </c>
@@ -10081,10 +10126,10 @@
         <v>269</v>
       </c>
       <c r="AW61" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX61" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="62" spans="1:50">
@@ -10196,6 +10241,12 @@
       <c r="AP62">
         <v>4.1</v>
       </c>
+      <c r="AQ62" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR62" t="s">
+        <v>281</v>
+      </c>
       <c r="AT62">
         <v>2.7</v>
       </c>
@@ -10206,10 +10257,10 @@
         <v>270</v>
       </c>
       <c r="AW62" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX62" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="63" spans="1:50">
@@ -10324,6 +10375,12 @@
       <c r="AP63">
         <v>2.2</v>
       </c>
+      <c r="AQ63" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR63" t="s">
+        <v>281</v>
+      </c>
       <c r="AT63">
         <v>3.7</v>
       </c>
@@ -10334,10 +10391,10 @@
         <v>271</v>
       </c>
       <c r="AW63" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AX63" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="64" spans="1:50">
@@ -10449,6 +10506,12 @@
       <c r="AP64">
         <v>1.7</v>
       </c>
+      <c r="AQ64" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR64" t="s">
+        <v>281</v>
+      </c>
       <c r="AT64">
         <v>4.2</v>
       </c>
@@ -10459,10 +10522,10 @@
         <v>272</v>
       </c>
       <c r="AW64" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AX64" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="65" spans="1:50">
@@ -10574,6 +10637,12 @@
       <c r="AP65">
         <v>2.6</v>
       </c>
+      <c r="AQ65" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR65" t="s">
+        <v>281</v>
+      </c>
       <c r="AT65">
         <v>3.8</v>
       </c>
@@ -10584,10 +10653,10 @@
         <v>273</v>
       </c>
       <c r="AW65" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AX65" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="66" spans="1:50">
@@ -10699,6 +10768,12 @@
       <c r="AP66">
         <v>4.1</v>
       </c>
+      <c r="AQ66" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR66" t="s">
+        <v>281</v>
+      </c>
       <c r="AT66">
         <v>3.9</v>
       </c>
@@ -10709,10 +10784,10 @@
         <v>274</v>
       </c>
       <c r="AW66" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AX66" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/nba_roy_winners.xlsx
+++ b/nba_roy_winners.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="284">
-  <si>
-    <t>year_x</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="285">
+  <si>
+    <t>season_ending_year_x</t>
   </si>
   <si>
     <t>award</t>
@@ -58,7 +58,7 @@
     <t>seas_id_y</t>
   </si>
   <si>
-    <t>year_y</t>
+    <t>season_ending_year_y</t>
   </si>
   <si>
     <t>player_y</t>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>triple_double_avg</t>
+  </si>
+  <si>
+    <t>calendar_year</t>
   </si>
   <si>
     <t>2024</t>
@@ -1223,13 +1226,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX66"/>
+  <dimension ref="A1:AY66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:50">
+    <row r="1" spans="1:51">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1380,22 +1383,25 @@
       <c r="AX1" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:51">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D2">
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F2">
         <v>99</v>
@@ -1410,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K2">
         <v>31850</v>
@@ -1419,19 +1425,22 @@
         <v>5209</v>
       </c>
       <c r="M2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N2">
         <v>31850</v>
       </c>
       <c r="O2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P2" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="Q2">
+        <v>2004</v>
       </c>
       <c r="R2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="S2">
         <v>20</v>
@@ -1440,10 +1449,10 @@
         <v>1</v>
       </c>
       <c r="U2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="W2">
         <v>71</v>
@@ -1521,30 +1530,33 @@
         <v>21.4</v>
       </c>
       <c r="AV2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AW2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX2" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY2">
+        <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:50">
+    <row r="3" spans="1:51">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D3">
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F3">
         <v>98</v>
@@ -1559,7 +1571,7 @@
         <v>0.988</v>
       </c>
       <c r="J3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K3">
         <v>30981</v>
@@ -1568,19 +1580,22 @@
         <v>5089</v>
       </c>
       <c r="M3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N3">
         <v>30981</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="Q3">
+        <v>2003</v>
       </c>
       <c r="R3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="S3">
         <v>20</v>
@@ -1589,10 +1604,10 @@
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="W3">
         <v>72</v>
@@ -1670,30 +1685,33 @@
         <v>20</v>
       </c>
       <c r="AV3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AW3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX3" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY3">
+        <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:50">
+    <row r="4" spans="1:51">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F4">
         <v>48</v>
@@ -1708,7 +1726,7 @@
         <v>0.756</v>
       </c>
       <c r="J4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K4">
         <v>30324</v>
@@ -1717,19 +1735,22 @@
         <v>5006</v>
       </c>
       <c r="M4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N4">
         <v>30324</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Q4">
+        <v>2002</v>
       </c>
       <c r="R4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="S4">
         <v>20</v>
@@ -1738,10 +1759,10 @@
         <v>1</v>
       </c>
       <c r="U4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="W4">
         <v>74</v>
@@ -1819,30 +1840,33 @@
         <v>15.3</v>
       </c>
       <c r="AV4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AW4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX4" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY4">
+        <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:50">
+    <row r="5" spans="1:51">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D5">
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F5">
         <v>84</v>
@@ -1857,7 +1881,7 @@
         <v>0.9389999999999999</v>
       </c>
       <c r="J5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K5">
         <v>29366</v>
@@ -1866,19 +1890,22 @@
         <v>4859</v>
       </c>
       <c r="M5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N5">
         <v>29366</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="Q5">
+        <v>2002</v>
       </c>
       <c r="R5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S5">
         <v>19</v>
@@ -1887,10 +1914,10 @@
         <v>1</v>
       </c>
       <c r="U5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="W5">
         <v>51</v>
@@ -1968,30 +1995,33 @@
         <v>15.7</v>
       </c>
       <c r="AV5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AW5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX5" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY5">
+        <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:50">
+    <row r="6" spans="1:51">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D6">
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F6">
         <v>99</v>
@@ -2006,7 +2036,7 @@
         <v>0.996</v>
       </c>
       <c r="J6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K6">
         <v>28537</v>
@@ -2015,19 +2045,22 @@
         <v>4723</v>
       </c>
       <c r="M6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N6">
         <v>28537</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P6" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="Q6">
+        <v>2000</v>
       </c>
       <c r="R6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S6">
         <v>20</v>
@@ -2036,10 +2069,10 @@
         <v>1</v>
       </c>
       <c r="U6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="W6">
         <v>67</v>
@@ -2117,30 +2150,33 @@
         <v>17.8</v>
       </c>
       <c r="AV6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AW6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX6" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY6">
+        <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="1:50">
+    <row r="7" spans="1:51">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D7">
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F7">
         <v>98</v>
@@ -2155,7 +2191,7 @@
         <v>0.992</v>
       </c>
       <c r="J7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K7">
         <v>28015</v>
@@ -2164,19 +2200,22 @@
         <v>4654</v>
       </c>
       <c r="M7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N7">
         <v>28015</v>
       </c>
       <c r="O7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P7" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Q7">
+        <v>2000</v>
       </c>
       <c r="R7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="S7">
         <v>19</v>
@@ -2185,10 +2224,10 @@
         <v>1</v>
       </c>
       <c r="U7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W7">
         <v>72</v>
@@ -2266,30 +2305,33 @@
         <v>21.2</v>
       </c>
       <c r="AV7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AW7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX7" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY7">
+        <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:50">
+    <row r="8" spans="1:51">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D8">
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F8">
         <v>90</v>
@@ -2304,7 +2346,7 @@
         <v>0.952</v>
       </c>
       <c r="J8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K8">
         <v>26962</v>
@@ -2313,19 +2355,22 @@
         <v>4474</v>
       </c>
       <c r="M8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N8">
         <v>26962</v>
       </c>
       <c r="O8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="Q8">
+        <v>1997</v>
       </c>
       <c r="R8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S8">
         <v>21</v>
@@ -2334,10 +2379,10 @@
         <v>1</v>
       </c>
       <c r="U8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="W8">
         <v>81</v>
@@ -2415,30 +2460,33 @@
         <v>15.8</v>
       </c>
       <c r="AV8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AW8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX8" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY8">
+        <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:50">
+    <row r="9" spans="1:51">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D9">
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F9">
         <v>64</v>
@@ -2453,7 +2501,7 @@
         <v>0.828</v>
       </c>
       <c r="J9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K9">
         <v>26692</v>
@@ -2462,19 +2510,22 @@
         <v>4424</v>
       </c>
       <c r="M9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N9">
         <v>26692</v>
       </c>
       <c r="O9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Q9">
+        <v>1993</v>
       </c>
       <c r="R9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="S9">
         <v>24</v>
@@ -2483,10 +2534,10 @@
         <v>1</v>
       </c>
       <c r="U9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="W9">
         <v>75</v>
@@ -2564,30 +2615,33 @@
         <v>10.2</v>
       </c>
       <c r="AV9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AW9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX9" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY9">
+        <v>2017</v>
       </c>
     </row>
-    <row r="10" spans="1:50">
+    <row r="10" spans="1:51">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F10">
         <v>130</v>
@@ -2602,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K10">
         <v>26059</v>
@@ -2611,19 +2665,22 @@
         <v>4339</v>
       </c>
       <c r="M10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N10">
         <v>26059</v>
       </c>
       <c r="O10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P10" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="Q10">
+        <v>1996</v>
       </c>
       <c r="R10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="S10">
         <v>20</v>
@@ -2632,10 +2689,10 @@
         <v>1</v>
       </c>
       <c r="U10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="W10">
         <v>82</v>
@@ -2713,30 +2770,33 @@
         <v>18.3</v>
       </c>
       <c r="AV10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AW10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX10" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY10">
+        <v>2016</v>
       </c>
     </row>
-    <row r="11" spans="1:50">
+    <row r="11" spans="1:51">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D11">
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F11">
         <v>110</v>
@@ -2751,7 +2811,7 @@
         <v>0.929</v>
       </c>
       <c r="J11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K11">
         <v>25135</v>
@@ -2760,19 +2820,22 @@
         <v>4223</v>
       </c>
       <c r="M11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N11">
         <v>25135</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P11" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Q11">
+        <v>1996</v>
       </c>
       <c r="R11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="S11">
         <v>19</v>
@@ -2781,10 +2844,10 @@
         <v>1</v>
       </c>
       <c r="U11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="W11">
         <v>82</v>
@@ -2862,30 +2925,33 @@
         <v>16.9</v>
       </c>
       <c r="AV11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AW11" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX11" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY11">
+        <v>2015</v>
       </c>
     </row>
-    <row r="12" spans="1:50">
+    <row r="12" spans="1:51">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D12">
         <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F12">
         <v>104</v>
@@ -2900,7 +2966,7 @@
         <v>0.918</v>
       </c>
       <c r="J12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K12">
         <v>24904</v>
@@ -2909,19 +2975,22 @@
         <v>4182</v>
       </c>
       <c r="M12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N12">
         <v>24904</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P12" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="Q12">
+        <v>1992</v>
       </c>
       <c r="R12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S12">
         <v>22</v>
@@ -2930,10 +2999,10 @@
         <v>1</v>
       </c>
       <c r="U12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="W12">
         <v>70</v>
@@ -3011,30 +3080,33 @@
         <v>16.7</v>
       </c>
       <c r="AV12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AW12" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX12" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY12">
+        <v>2014</v>
       </c>
     </row>
-    <row r="13" spans="1:50">
+    <row r="13" spans="1:51">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D13">
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F13">
         <v>121</v>
@@ -3049,7 +3121,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K13">
         <v>24017</v>
@@ -3058,19 +3130,22 @@
         <v>4077</v>
       </c>
       <c r="M13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N13">
         <v>24017</v>
       </c>
       <c r="O13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P13" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="Q13">
+        <v>1991</v>
       </c>
       <c r="R13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S13">
         <v>22</v>
@@ -3079,10 +3154,10 @@
         <v>1</v>
       </c>
       <c r="U13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="W13">
         <v>82</v>
@@ -3160,30 +3235,33 @@
         <v>19</v>
       </c>
       <c r="AV13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AW13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX13" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY13">
+        <v>2013</v>
       </c>
     </row>
-    <row r="14" spans="1:50">
+    <row r="14" spans="1:51">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D14">
         <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F14">
         <v>117</v>
@@ -3198,7 +3276,7 @@
         <v>0.987</v>
       </c>
       <c r="J14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K14">
         <v>23691</v>
@@ -3207,19 +3285,22 @@
         <v>4037</v>
       </c>
       <c r="M14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N14">
         <v>23691</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P14" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="Q14">
+        <v>1993</v>
       </c>
       <c r="R14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S14">
         <v>19</v>
@@ -3228,10 +3309,10 @@
         <v>1</v>
       </c>
       <c r="U14" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="W14">
         <v>51</v>
@@ -3309,30 +3390,33 @@
         <v>18.5</v>
       </c>
       <c r="AV14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AW14" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX14" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY14">
+        <v>2012</v>
       </c>
     </row>
-    <row r="15" spans="1:50">
+    <row r="15" spans="1:51">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D15">
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F15">
         <v>118</v>
@@ -3347,7 +3431,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K15">
         <v>22793</v>
@@ -3356,19 +3440,22 @@
         <v>3920</v>
       </c>
       <c r="M15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N15">
         <v>22793</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P15" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="Q15">
+        <v>1990</v>
       </c>
       <c r="R15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="S15">
         <v>21</v>
@@ -3377,10 +3464,10 @@
         <v>1</v>
       </c>
       <c r="U15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="W15">
         <v>82</v>
@@ -3458,30 +3545,33 @@
         <v>22.5</v>
       </c>
       <c r="AV15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AW15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX15" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY15">
+        <v>2011</v>
       </c>
     </row>
-    <row r="16" spans="1:50">
+    <row r="16" spans="1:51">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D16">
         <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F16">
         <v>67</v>
@@ -3496,7 +3586,7 @@
         <v>0.798</v>
       </c>
       <c r="J16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K16">
         <v>22713</v>
@@ -3505,19 +3595,22 @@
         <v>3912</v>
       </c>
       <c r="M16" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N16">
         <v>22713</v>
       </c>
       <c r="O16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P16" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="Q16">
+        <v>1990</v>
       </c>
       <c r="R16" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="S16">
         <v>20</v>
@@ -3526,10 +3619,10 @@
         <v>1</v>
       </c>
       <c r="U16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="W16">
         <v>72</v>
@@ -3607,30 +3700,33 @@
         <v>20.1</v>
       </c>
       <c r="AV16" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AW16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX16" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY16">
+        <v>2010</v>
       </c>
     </row>
-    <row r="17" spans="1:50">
+    <row r="17" spans="1:51">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D17">
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F17">
         <v>111</v>
@@ -3645,7 +3741,7 @@
         <v>0.957</v>
       </c>
       <c r="J17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K17">
         <v>21737</v>
@@ -3654,19 +3750,22 @@
         <v>3812</v>
       </c>
       <c r="M17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N17">
         <v>21737</v>
       </c>
       <c r="O17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P17" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="Q17">
+        <v>1989</v>
       </c>
       <c r="R17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S17">
         <v>20</v>
@@ -3675,10 +3774,10 @@
         <v>1</v>
       </c>
       <c r="U17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="W17">
         <v>81</v>
@@ -3756,30 +3855,33 @@
         <v>16.8</v>
       </c>
       <c r="AV17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AW17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX17" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY17">
+        <v>2009</v>
       </c>
     </row>
-    <row r="18" spans="1:50">
+    <row r="18" spans="1:51">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D18">
         <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F18">
         <v>90</v>
@@ -3794,7 +3896,7 @@
         <v>0.872</v>
       </c>
       <c r="J18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K18">
         <v>21290</v>
@@ -3803,19 +3905,22 @@
         <v>3770</v>
       </c>
       <c r="M18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N18">
         <v>21290</v>
       </c>
       <c r="O18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P18" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="Q18">
+        <v>1989</v>
       </c>
       <c r="R18" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="S18">
         <v>19</v>
@@ -3824,10 +3929,10 @@
         <v>1</v>
       </c>
       <c r="U18" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="W18">
         <v>80</v>
@@ -3905,30 +4010,33 @@
         <v>20.3</v>
       </c>
       <c r="AV18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AW18" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX18" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY18">
+        <v>2008</v>
       </c>
     </row>
-    <row r="19" spans="1:50">
+    <row r="19" spans="1:51">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D19">
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F19">
         <v>127</v>
@@ -3943,7 +4051,7 @@
         <v>0.997</v>
       </c>
       <c r="J19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K19">
         <v>20526</v>
@@ -3952,19 +4060,22 @@
         <v>3658</v>
       </c>
       <c r="M19" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N19">
         <v>20526</v>
       </c>
       <c r="O19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P19" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="Q19">
+        <v>1985</v>
       </c>
       <c r="R19" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="S19">
         <v>22</v>
@@ -3973,10 +4084,10 @@
         <v>1</v>
       </c>
       <c r="U19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="W19">
         <v>57</v>
@@ -4054,30 +4165,33 @@
         <v>16.8</v>
       </c>
       <c r="AV19" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AW19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX19" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY19">
+        <v>2007</v>
       </c>
     </row>
-    <row r="20" spans="1:50">
+    <row r="20" spans="1:51">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D20">
         <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F20">
         <v>124</v>
@@ -4092,7 +4206,7 @@
         <v>0.997</v>
       </c>
       <c r="J20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K20">
         <v>20001</v>
@@ -4101,19 +4215,22 @@
         <v>3585</v>
       </c>
       <c r="M20" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N20">
         <v>20001</v>
       </c>
       <c r="O20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P20" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="Q20">
+        <v>1986</v>
       </c>
       <c r="R20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S20">
         <v>20</v>
@@ -4122,10 +4239,10 @@
         <v>1</v>
       </c>
       <c r="U20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="W20">
         <v>78</v>
@@ -4203,30 +4320,33 @@
         <v>16.1</v>
       </c>
       <c r="AV20" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AW20" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX20" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY20">
+        <v>2006</v>
       </c>
     </row>
-    <row r="21" spans="1:50">
+    <row r="21" spans="1:51">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D21">
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F21">
         <v>77</v>
@@ -4241,7 +4361,7 @@
         <v>0.8159999999999999</v>
       </c>
       <c r="J21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K21">
         <v>19508</v>
@@ -4250,19 +4370,22 @@
         <v>3521</v>
       </c>
       <c r="M21" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N21">
         <v>19508</v>
       </c>
       <c r="O21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P21" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="Q21">
+        <v>1983</v>
       </c>
       <c r="R21" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="S21">
         <v>22</v>
@@ -4271,10 +4394,10 @@
         <v>1</v>
       </c>
       <c r="U21" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="W21">
         <v>73</v>
@@ -4352,30 +4475,33 @@
         <v>15.1</v>
       </c>
       <c r="AV21" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AW21" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX21" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY21">
+        <v>2005</v>
       </c>
     </row>
-    <row r="22" spans="1:50">
+    <row r="22" spans="1:51">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D22">
         <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F22">
         <v>78</v>
@@ -4390,7 +4516,7 @@
         <v>0.861</v>
       </c>
       <c r="J22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K22">
         <v>19051</v>
@@ -4399,19 +4525,22 @@
         <v>3463</v>
       </c>
       <c r="M22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N22">
         <v>19051</v>
       </c>
       <c r="O22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P22" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="Q22">
+        <v>1985</v>
       </c>
       <c r="R22" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="S22">
         <v>19</v>
@@ -4420,10 +4549,10 @@
         <v>1</v>
       </c>
       <c r="U22" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="W22">
         <v>79</v>
@@ -4501,30 +4630,33 @@
         <v>20.9</v>
       </c>
       <c r="AV22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AW22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX22" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY22">
+        <v>2004</v>
       </c>
     </row>
-    <row r="23" spans="1:50">
+    <row r="23" spans="1:51">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D23">
         <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F23">
         <v>59</v>
@@ -4539,7 +4671,7 @@
         <v>0.783</v>
       </c>
       <c r="J23" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K23">
         <v>18262</v>
@@ -4548,19 +4680,22 @@
         <v>3366</v>
       </c>
       <c r="M23" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N23">
         <v>18262</v>
       </c>
       <c r="O23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P23" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="Q23">
+        <v>1983</v>
       </c>
       <c r="R23" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="S23">
         <v>20</v>
@@ -4569,10 +4704,10 @@
         <v>1</v>
       </c>
       <c r="U23" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="W23">
         <v>82</v>
@@ -4650,30 +4785,33 @@
         <v>13.5</v>
       </c>
       <c r="AV23" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AW23" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX23" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY23">
+        <v>2003</v>
       </c>
     </row>
-    <row r="24" spans="1:50">
+    <row r="24" spans="1:51">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D24">
         <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F24">
         <v>117</v>
@@ -4688,7 +4826,7 @@
         <v>0.929</v>
       </c>
       <c r="J24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K24">
         <v>18110</v>
@@ -4697,19 +4835,22 @@
         <v>3342</v>
       </c>
       <c r="M24" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N24">
         <v>18110</v>
       </c>
       <c r="O24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P24" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="Q24">
+        <v>1981</v>
       </c>
       <c r="R24" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="S24">
         <v>21</v>
@@ -4718,10 +4859,10 @@
         <v>1</v>
       </c>
       <c r="U24" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="W24">
         <v>82</v>
@@ -4799,30 +4940,33 @@
         <v>17.6</v>
       </c>
       <c r="AV24" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AW24" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX24" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY24">
+        <v>2002</v>
       </c>
     </row>
-    <row r="25" spans="1:50">
+    <row r="25" spans="1:51">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D25">
         <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F25">
         <v>75</v>
@@ -4837,7 +4981,7 @@
         <v>0.605</v>
       </c>
       <c r="J25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K25">
         <v>17575</v>
@@ -4846,19 +4990,22 @@
         <v>3276</v>
       </c>
       <c r="M25" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N25">
         <v>17575</v>
       </c>
       <c r="O25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P25" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="Q25">
+        <v>1981</v>
       </c>
       <c r="R25" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="S25">
         <v>20</v>
@@ -4867,10 +5014,10 @@
         <v>1</v>
       </c>
       <c r="U25" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="W25">
         <v>82</v>
@@ -4948,30 +5095,33 @@
         <v>11.9</v>
       </c>
       <c r="AV25" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AW25" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX25" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY25">
+        <v>2001</v>
       </c>
     </row>
-    <row r="26" spans="1:50">
+    <row r="26" spans="1:51">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D26">
         <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F26">
         <v>58</v>
@@ -4986,7 +5136,7 @@
         <v>0.479</v>
       </c>
       <c r="J26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K26">
         <v>16891</v>
@@ -4995,19 +5145,22 @@
         <v>3186</v>
       </c>
       <c r="M26" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N26">
         <v>16891</v>
       </c>
       <c r="O26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P26" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="Q26">
+        <v>1980</v>
       </c>
       <c r="R26" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="S26">
         <v>20</v>
@@ -5016,10 +5169,10 @@
         <v>1</v>
       </c>
       <c r="U26" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V26" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="W26">
         <v>81</v>
@@ -5097,30 +5250,33 @@
         <v>20.1</v>
       </c>
       <c r="AV26" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AW26" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX26" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY26">
+        <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:50">
+    <row r="27" spans="1:51">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D27">
         <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F27">
         <v>58</v>
@@ -5135,7 +5291,7 @@
         <v>0.479</v>
       </c>
       <c r="J27" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K27">
         <v>17151</v>
@@ -5144,19 +5300,22 @@
         <v>3219</v>
       </c>
       <c r="M27" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N27">
         <v>17151</v>
       </c>
       <c r="O27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P27" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="Q27">
+        <v>1978</v>
       </c>
       <c r="R27" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S27">
         <v>22</v>
@@ -5165,10 +5324,10 @@
         <v>1</v>
       </c>
       <c r="U27" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="W27">
         <v>77</v>
@@ -5246,30 +5405,33 @@
         <v>18</v>
       </c>
       <c r="AV27" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AW27" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX27" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY27">
+        <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="1:50">
+    <row r="28" spans="1:51">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D28">
         <v>22</v>
       </c>
       <c r="E28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F28">
         <v>113</v>
@@ -5284,7 +5446,7 @@
         <v>0.958</v>
       </c>
       <c r="J28" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K28">
         <v>16697</v>
@@ -5293,19 +5455,22 @@
         <v>3166</v>
       </c>
       <c r="M28" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N28">
         <v>16697</v>
       </c>
       <c r="O28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P28" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="Q28">
+        <v>1977</v>
       </c>
       <c r="R28" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="S28">
         <v>22</v>
@@ -5314,10 +5479,10 @@
         <v>1</v>
       </c>
       <c r="U28" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="W28">
         <v>50</v>
@@ -5395,30 +5560,33 @@
         <v>18.3</v>
       </c>
       <c r="AV28" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AW28" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX28" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY28">
+        <v>1999</v>
       </c>
     </row>
-    <row r="29" spans="1:50">
+    <row r="29" spans="1:51">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D29">
         <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F29">
         <v>113</v>
@@ -5433,7 +5601,7 @@
         <v>0.974</v>
       </c>
       <c r="J29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K29">
         <v>16152</v>
@@ -5442,19 +5610,22 @@
         <v>3092</v>
       </c>
       <c r="M29" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N29">
         <v>16152</v>
       </c>
       <c r="O29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P29" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="Q29">
+        <v>1977</v>
       </c>
       <c r="R29" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="S29">
         <v>21</v>
@@ -5463,10 +5634,10 @@
         <v>1</v>
       </c>
       <c r="U29" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="W29">
         <v>82</v>
@@ -5544,30 +5715,33 @@
         <v>21.1</v>
       </c>
       <c r="AV29" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AW29" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX29" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY29">
+        <v>1998</v>
       </c>
     </row>
-    <row r="30" spans="1:50">
+    <row r="30" spans="1:51">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D30">
         <v>21</v>
       </c>
       <c r="E30" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F30">
         <v>44</v>
@@ -5582,7 +5756,7 @@
         <v>0.383</v>
       </c>
       <c r="J30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K30">
         <v>15105</v>
@@ -5591,19 +5765,22 @@
         <v>2967</v>
       </c>
       <c r="M30" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N30">
         <v>15105</v>
       </c>
       <c r="O30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P30" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="Q30">
+        <v>1976</v>
       </c>
       <c r="R30" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S30">
         <v>21</v>
@@ -5612,10 +5789,10 @@
         <v>1</v>
       </c>
       <c r="U30" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V30" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="W30">
         <v>76</v>
@@ -5693,30 +5870,33 @@
         <v>23.5</v>
       </c>
       <c r="AV30" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AW30" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX30" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY30">
+        <v>1997</v>
       </c>
     </row>
-    <row r="31" spans="1:50">
+    <row r="31" spans="1:51">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C31" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D31">
         <v>22</v>
       </c>
       <c r="E31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F31">
         <v>76</v>
@@ -5731,7 +5911,7 @@
         <v>0.673</v>
       </c>
       <c r="J31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K31">
         <v>14657</v>
@@ -5740,19 +5920,22 @@
         <v>2911</v>
       </c>
       <c r="M31" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N31">
         <v>14657</v>
       </c>
       <c r="O31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P31" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="Q31">
+        <v>1974</v>
       </c>
       <c r="R31" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S31">
         <v>22</v>
@@ -5761,10 +5944,10 @@
         <v>1</v>
       </c>
       <c r="U31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="W31">
         <v>70</v>
@@ -5842,30 +6025,33 @@
         <v>19</v>
       </c>
       <c r="AV31" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AW31" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX31" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY31">
+        <v>1996</v>
       </c>
     </row>
-    <row r="32" spans="1:50">
+    <row r="32" spans="1:51">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D32">
         <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F32">
         <v>43</v>
@@ -5880,7 +6066,7 @@
         <v>0.41</v>
       </c>
       <c r="J32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K32">
         <v>14259</v>
@@ -5889,19 +6075,22 @@
         <v>2863</v>
       </c>
       <c r="M32" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N32">
         <v>14259</v>
       </c>
       <c r="O32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="Q32">
+        <v>1973</v>
       </c>
       <c r="R32" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="S32">
         <v>22</v>
@@ -5910,10 +6099,10 @@
         <v>1</v>
       </c>
       <c r="U32" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="W32">
         <v>70</v>
@@ -5991,30 +6180,33 @@
         <v>19.9</v>
       </c>
       <c r="AV32" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AW32" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX32" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY32">
+        <v>1995</v>
       </c>
     </row>
-    <row r="33" spans="1:50">
+    <row r="33" spans="1:51">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D33">
         <v>21</v>
       </c>
       <c r="E33" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F33">
         <v>43</v>
@@ -6029,7 +6221,7 @@
         <v>0.41</v>
       </c>
       <c r="J33" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K33">
         <v>14304</v>
@@ -6038,19 +6230,22 @@
         <v>2870</v>
       </c>
       <c r="M33" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N33">
         <v>14304</v>
       </c>
       <c r="O33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P33" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="Q33">
+        <v>1974</v>
       </c>
       <c r="R33" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S33">
         <v>21</v>
@@ -6059,10 +6254,10 @@
         <v>1</v>
       </c>
       <c r="U33" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V33" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W33">
         <v>79</v>
@@ -6140,30 +6335,33 @@
         <v>11.7</v>
       </c>
       <c r="AV33" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AW33" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX33" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY33">
+        <v>1995</v>
       </c>
     </row>
-    <row r="34" spans="1:50">
+    <row r="34" spans="1:51">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D34">
         <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F34">
         <v>53</v>
@@ -6178,7 +6376,7 @@
         <v>0.525</v>
       </c>
       <c r="J34" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K34">
         <v>13682</v>
@@ -6187,19 +6385,22 @@
         <v>2781</v>
       </c>
       <c r="M34" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N34">
         <v>13682</v>
       </c>
       <c r="O34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="Q34">
+        <v>1974</v>
       </c>
       <c r="R34" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="S34">
         <v>20</v>
@@ -6208,10 +6409,10 @@
         <v>1</v>
       </c>
       <c r="U34" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="W34">
         <v>76</v>
@@ -6289,30 +6490,33 @@
         <v>17.5</v>
       </c>
       <c r="AV34" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AW34" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX34" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY34">
+        <v>1994</v>
       </c>
     </row>
-    <row r="35" spans="1:50">
+    <row r="35" spans="1:51">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D35">
         <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F35">
         <v>96</v>
@@ -6327,7 +6531,7 @@
         <v>0.98</v>
       </c>
       <c r="J35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K35">
         <v>13535</v>
@@ -6336,19 +6540,22 @@
         <v>2751</v>
       </c>
       <c r="M35" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N35">
         <v>13535</v>
       </c>
       <c r="O35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P35" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Q35">
+        <v>1973</v>
       </c>
       <c r="R35" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="S35">
         <v>20</v>
@@ -6357,10 +6564,10 @@
         <v>1</v>
       </c>
       <c r="U35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V35" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="W35">
         <v>81</v>
@@ -6438,30 +6645,33 @@
         <v>23.4</v>
       </c>
       <c r="AV35" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AW35" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX35" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY35">
+        <v>1993</v>
       </c>
     </row>
-    <row r="36" spans="1:50">
+    <row r="36" spans="1:51">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D36">
         <v>22</v>
       </c>
       <c r="E36" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F36">
         <v>90.5</v>
@@ -6476,7 +6686,7 @@
         <v>0.9429999999999999</v>
       </c>
       <c r="J36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K36">
         <v>12953</v>
@@ -6485,22 +6695,22 @@
         <v>2666</v>
       </c>
       <c r="M36" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N36">
         <v>12953</v>
       </c>
       <c r="O36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q36">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="R36" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="S36">
         <v>22</v>
@@ -6509,10 +6719,10 @@
         <v>1</v>
       </c>
       <c r="U36" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V36" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="W36">
         <v>82</v>
@@ -6590,30 +6800,33 @@
         <v>19.2</v>
       </c>
       <c r="AV36" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AW36" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX36" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY36">
+        <v>1992</v>
       </c>
     </row>
-    <row r="37" spans="1:50">
+    <row r="37" spans="1:51">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D37">
         <v>23</v>
       </c>
       <c r="E37" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F37">
         <v>69</v>
@@ -6628,7 +6841,7 @@
         <v>0.719</v>
       </c>
       <c r="J37" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K37">
         <v>12371</v>
@@ -6637,19 +6850,22 @@
         <v>2580</v>
       </c>
       <c r="M37" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N37">
         <v>12371</v>
       </c>
       <c r="O37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P37" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="Q37">
+        <v>1968</v>
       </c>
       <c r="R37" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="S37">
         <v>23</v>
@@ -6658,10 +6874,10 @@
         <v>1</v>
       </c>
       <c r="U37" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V37" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="W37">
         <v>74</v>
@@ -6739,30 +6955,33 @@
         <v>18.4</v>
       </c>
       <c r="AV37" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AW37" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX37" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY37">
+        <v>1991</v>
       </c>
     </row>
-    <row r="38" spans="1:50">
+    <row r="38" spans="1:51">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D38">
         <v>24</v>
       </c>
       <c r="E38" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F38">
         <v>92</v>
@@ -6777,7 +6996,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K38">
         <v>11893</v>
@@ -6786,19 +7005,22 @@
         <v>2494</v>
       </c>
       <c r="M38" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N38">
         <v>11893</v>
       </c>
       <c r="O38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P38" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="Q38">
+        <v>1966</v>
       </c>
       <c r="R38" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="S38">
         <v>24</v>
@@ -6807,10 +7029,10 @@
         <v>1</v>
       </c>
       <c r="U38" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V38" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="W38">
         <v>82</v>
@@ -6888,30 +7110,33 @@
         <v>24.3</v>
       </c>
       <c r="AV38" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AW38" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX38" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY38">
+        <v>1990</v>
       </c>
     </row>
-    <row r="39" spans="1:50">
+    <row r="39" spans="1:51">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C39" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D39">
         <v>23</v>
       </c>
       <c r="E39" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F39">
         <v>80</v>
@@ -6926,7 +7151,7 @@
         <v>0.9409999999999999</v>
       </c>
       <c r="J39" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K39">
         <v>11657</v>
@@ -6935,19 +7160,22 @@
         <v>2449</v>
       </c>
       <c r="M39" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N39">
         <v>11657</v>
       </c>
       <c r="O39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="Q39">
+        <v>1966</v>
       </c>
       <c r="R39" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="S39">
         <v>23</v>
@@ -6956,10 +7184,10 @@
         <v>1</v>
       </c>
       <c r="U39" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V39" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="W39">
         <v>79</v>
@@ -7037,30 +7265,33 @@
         <v>22</v>
       </c>
       <c r="AV39" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AW39" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX39" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY39">
+        <v>1989</v>
       </c>
     </row>
-    <row r="40" spans="1:50">
+    <row r="40" spans="1:51">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C40" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D40">
         <v>22</v>
       </c>
       <c r="E40" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F40">
         <v>77</v>
@@ -7075,7 +7306,7 @@
         <v>0.963</v>
       </c>
       <c r="J40" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K40">
         <v>11188</v>
@@ -7084,19 +7315,22 @@
         <v>2373</v>
       </c>
       <c r="M40" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N40">
         <v>11188</v>
       </c>
       <c r="O40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P40" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Q40">
+        <v>1966</v>
       </c>
       <c r="R40" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S40">
         <v>22</v>
@@ -7105,10 +7339,10 @@
         <v>1</v>
       </c>
       <c r="U40" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V40" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="W40">
         <v>82</v>
@@ -7186,30 +7420,33 @@
         <v>13.6</v>
       </c>
       <c r="AV40" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AW40" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX40" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY40">
+        <v>1988</v>
       </c>
     </row>
-    <row r="41" spans="1:50">
+    <row r="41" spans="1:51">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C41" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D41">
         <v>22</v>
       </c>
       <c r="E41" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F41">
         <v>68</v>
@@ -7224,7 +7461,7 @@
         <v>0.872</v>
       </c>
       <c r="J41" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K41">
         <v>10623</v>
@@ -7233,19 +7470,22 @@
         <v>2292</v>
       </c>
       <c r="M41" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N41">
         <v>10623</v>
       </c>
       <c r="O41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="Q41">
+        <v>1965</v>
       </c>
       <c r="R41" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="S41">
         <v>22</v>
@@ -7254,10 +7494,10 @@
         <v>1</v>
       </c>
       <c r="U41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V41" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="W41">
         <v>82</v>
@@ -7335,30 +7575,33 @@
         <v>18.8</v>
       </c>
       <c r="AV41" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AW41" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX41" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY41">
+        <v>1987</v>
       </c>
     </row>
-    <row r="42" spans="1:50">
+    <row r="42" spans="1:51">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D42">
         <v>23</v>
       </c>
       <c r="E42" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F42">
         <v>36</v>
@@ -7373,7 +7616,7 @@
         <v>0.462</v>
       </c>
       <c r="J42" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K42">
         <v>10454</v>
@@ -7382,22 +7625,22 @@
         <v>2264</v>
       </c>
       <c r="M42" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N42">
         <v>10454</v>
       </c>
       <c r="O42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q42">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="R42" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="S42">
         <v>23</v>
@@ -7406,10 +7649,10 @@
         <v>1</v>
       </c>
       <c r="U42" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V42" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="W42">
         <v>50</v>
@@ -7487,30 +7730,33 @@
         <v>20</v>
       </c>
       <c r="AV42" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AW42" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX42" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY42">
+        <v>1986</v>
       </c>
     </row>
-    <row r="43" spans="1:50">
+    <row r="43" spans="1:51">
       <c r="A43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D43">
         <v>21</v>
       </c>
       <c r="E43" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F43">
         <v>57.5</v>
@@ -7525,7 +7771,7 @@
         <v>0.737</v>
       </c>
       <c r="J43" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K43">
         <v>10057</v>
@@ -7534,19 +7780,22 @@
         <v>2193</v>
       </c>
       <c r="M43" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N43">
         <v>10057</v>
       </c>
       <c r="O43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="Q43">
+        <v>1964</v>
       </c>
       <c r="R43" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="S43">
         <v>21</v>
@@ -7555,10 +7804,10 @@
         <v>1</v>
       </c>
       <c r="U43" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V43" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="W43">
         <v>82</v>
@@ -7636,30 +7885,33 @@
         <v>28.2</v>
       </c>
       <c r="AV43" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AW43" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX43" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY43">
+        <v>1985</v>
       </c>
     </row>
-    <row r="44" spans="1:50">
+    <row r="44" spans="1:51">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C44" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D44">
         <v>23</v>
       </c>
       <c r="E44" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F44">
         <v>76</v>
@@ -7674,7 +7926,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K44">
         <v>9733</v>
@@ -7683,19 +7935,22 @@
         <v>2142</v>
       </c>
       <c r="M44" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N44">
         <v>9733</v>
       </c>
       <c r="O44" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P44" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="Q44">
+        <v>1961</v>
       </c>
       <c r="R44" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="S44">
         <v>23</v>
@@ -7704,10 +7959,10 @@
         <v>1</v>
       </c>
       <c r="U44" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V44" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="W44">
         <v>82</v>
@@ -7785,30 +8040,33 @@
         <v>21</v>
       </c>
       <c r="AV44" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AW44" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX44" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY44">
+        <v>1984</v>
       </c>
     </row>
-    <row r="45" spans="1:50">
+    <row r="45" spans="1:51">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C45" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D45">
         <v>21</v>
       </c>
       <c r="E45" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F45">
         <v>60</v>
@@ -7823,7 +8081,7 @@
         <v>0.8110000000000001</v>
       </c>
       <c r="J45" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K45">
         <v>9452</v>
@@ -7832,19 +8090,22 @@
         <v>2098</v>
       </c>
       <c r="M45" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N45">
         <v>9452</v>
       </c>
       <c r="O45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P45" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="Q45">
+        <v>1962</v>
       </c>
       <c r="R45" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="S45">
         <v>21</v>
@@ -7853,10 +8114,10 @@
         <v>1</v>
       </c>
       <c r="U45" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V45" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="W45">
         <v>70</v>
@@ -7934,30 +8195,33 @@
         <v>23.7</v>
       </c>
       <c r="AV45" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AW45" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX45" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY45">
+        <v>1983</v>
       </c>
     </row>
-    <row r="46" spans="1:50">
+    <row r="46" spans="1:51">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D46">
         <v>21</v>
       </c>
       <c r="E46" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F46">
         <v>33</v>
@@ -7972,7 +8236,7 @@
         <v>0.478</v>
       </c>
       <c r="J46" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K46">
         <v>8756</v>
@@ -7981,19 +8245,22 @@
         <v>1981</v>
       </c>
       <c r="M46" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N46">
         <v>8756</v>
       </c>
       <c r="O46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="Q46">
+        <v>1961</v>
       </c>
       <c r="R46" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="S46">
         <v>21</v>
@@ -8002,10 +8269,10 @@
         <v>1</v>
       </c>
       <c r="U46" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V46" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="W46">
         <v>82</v>
@@ -8083,30 +8350,33 @@
         <v>15.5</v>
       </c>
       <c r="AV46" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AW46" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX46" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY46">
+        <v>1982</v>
       </c>
     </row>
-    <row r="47" spans="1:50">
+    <row r="47" spans="1:51">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C47" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D47">
         <v>22</v>
       </c>
       <c r="E47" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F47">
         <v>19</v>
@@ -8121,7 +8391,7 @@
         <v>0.275</v>
       </c>
       <c r="J47" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K47">
         <v>8425</v>
@@ -8130,19 +8400,22 @@
         <v>1915</v>
       </c>
       <c r="M47" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N47">
         <v>8425</v>
       </c>
       <c r="O47" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P47" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="Q47">
+        <v>1959</v>
       </c>
       <c r="R47" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="S47">
         <v>22</v>
@@ -8151,10 +8424,10 @@
         <v>1</v>
       </c>
       <c r="U47" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V47" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="W47">
         <v>81</v>
@@ -8229,30 +8502,33 @@
         <v>20.6</v>
       </c>
       <c r="AV47" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AW47" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX47" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY47">
+        <v>1981</v>
       </c>
     </row>
-    <row r="48" spans="1:50">
+    <row r="48" spans="1:51">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B48" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C48" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D48">
         <v>23</v>
       </c>
       <c r="E48" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F48">
         <v>63</v>
@@ -8267,7 +8543,7 @@
         <v>0.955</v>
       </c>
       <c r="J48" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K48">
         <v>8191</v>
@@ -8276,19 +8552,22 @@
         <v>1875</v>
       </c>
       <c r="M48" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N48">
         <v>8191</v>
       </c>
       <c r="O48" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="Q48">
+        <v>1957</v>
       </c>
       <c r="R48" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="S48">
         <v>23</v>
@@ -8297,10 +8576,10 @@
         <v>1</v>
       </c>
       <c r="U48" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V48" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="W48">
         <v>82</v>
@@ -8378,30 +8657,33 @@
         <v>21.3</v>
       </c>
       <c r="AV48" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AW48" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX48" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY48">
+        <v>1980</v>
       </c>
     </row>
-    <row r="49" spans="1:50">
+    <row r="49" spans="1:51">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D49">
         <v>22</v>
       </c>
       <c r="E49" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F49">
         <v>62</v>
@@ -8416,7 +8698,7 @@
         <v>0.9389999999999999</v>
       </c>
       <c r="J49" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K49">
         <v>7893</v>
@@ -8425,19 +8707,22 @@
         <v>1828</v>
       </c>
       <c r="M49" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N49">
         <v>7893</v>
       </c>
       <c r="O49" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="Q49">
+        <v>1957</v>
       </c>
       <c r="R49" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S49">
         <v>22</v>
@@ -8446,10 +8731,10 @@
         <v>1</v>
       </c>
       <c r="U49" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V49" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="W49">
         <v>79</v>
@@ -8518,30 +8803,33 @@
         <v>15.9</v>
       </c>
       <c r="AV49" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AW49" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX49" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY49">
+        <v>1979</v>
       </c>
     </row>
-    <row r="50" spans="1:50">
+    <row r="50" spans="1:51">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C50" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D50">
         <v>23</v>
       </c>
       <c r="E50" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F50">
         <v>49.3</v>
@@ -8556,7 +8844,7 @@
         <v>0.747</v>
       </c>
       <c r="J50" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K50">
         <v>7629</v>
@@ -8565,19 +8853,22 @@
         <v>1788</v>
       </c>
       <c r="M50" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N50">
         <v>7629</v>
       </c>
       <c r="O50" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P50" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="Q50">
+        <v>1955</v>
       </c>
       <c r="R50" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="S50">
         <v>23</v>
@@ -8586,10 +8877,10 @@
         <v>1</v>
       </c>
       <c r="U50" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V50" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="W50">
         <v>81</v>
@@ -8658,30 +8949,33 @@
         <v>24.2</v>
       </c>
       <c r="AV50" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AW50" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX50" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY50">
+        <v>1978</v>
       </c>
     </row>
-    <row r="51" spans="1:50">
+    <row r="51" spans="1:51">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B51" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C51" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D51">
         <v>21</v>
       </c>
       <c r="E51" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F51">
         <v>44</v>
@@ -8696,7 +8990,7 @@
         <v>0.667</v>
       </c>
       <c r="J51" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K51">
         <v>6917</v>
@@ -8705,19 +8999,22 @@
         <v>1692</v>
       </c>
       <c r="M51" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N51">
         <v>6917</v>
       </c>
       <c r="O51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P51" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="Q51">
+        <v>1956</v>
       </c>
       <c r="R51" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="S51">
         <v>21</v>
@@ -8726,10 +9023,10 @@
         <v>1</v>
       </c>
       <c r="U51" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V51" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="W51">
         <v>77</v>
@@ -8795,30 +9092,33 @@
         <v>20.3</v>
       </c>
       <c r="AV51" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AW51" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX51" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY51">
+        <v>1977</v>
       </c>
     </row>
-    <row r="52" spans="1:50">
+    <row r="52" spans="1:51">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B52" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C52" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D52">
         <v>21</v>
       </c>
       <c r="E52" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F52">
         <v>16.6</v>
@@ -8833,7 +9133,7 @@
         <v>0.922</v>
       </c>
       <c r="J52" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K52">
         <v>6492</v>
@@ -8842,19 +9142,22 @@
         <v>1624</v>
       </c>
       <c r="M52" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N52">
         <v>6492</v>
       </c>
       <c r="O52" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P52" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="Q52">
+        <v>1955</v>
       </c>
       <c r="R52" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="S52">
         <v>21</v>
@@ -8863,10 +9166,10 @@
         <v>1</v>
       </c>
       <c r="U52" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V52" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="W52">
         <v>80</v>
@@ -8932,30 +9235,33 @@
         <v>19</v>
       </c>
       <c r="AV52" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AW52" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX52" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY52">
+        <v>1976</v>
       </c>
     </row>
-    <row r="53" spans="1:50">
+    <row r="53" spans="1:51">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C53" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D53">
         <v>21</v>
       </c>
       <c r="E53" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F53">
         <v>7.6</v>
@@ -8970,7 +9276,7 @@
         <v>0.422</v>
       </c>
       <c r="J53" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K53">
         <v>6247</v>
@@ -8979,19 +9285,22 @@
         <v>1587</v>
       </c>
       <c r="M53" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N53">
         <v>6247</v>
       </c>
       <c r="O53" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P53" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="Q53">
+        <v>1954</v>
       </c>
       <c r="R53" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="S53">
         <v>21</v>
@@ -9000,10 +9309,10 @@
         <v>1</v>
       </c>
       <c r="U53" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V53" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="W53">
         <v>82</v>
@@ -9069,30 +9378,33 @@
         <v>14.2</v>
       </c>
       <c r="AV53" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AW53" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX53" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY53">
+        <v>1975</v>
       </c>
     </row>
-    <row r="54" spans="1:50">
+    <row r="54" spans="1:51">
       <c r="A54" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C54" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54">
         <v>23</v>
       </c>
       <c r="E54" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F54">
         <v>16</v>
@@ -9107,7 +9419,7 @@
         <v>0.9409999999999999</v>
       </c>
       <c r="J54" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K54">
         <v>5769</v>
@@ -9116,19 +9428,22 @@
         <v>1503</v>
       </c>
       <c r="M54" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N54">
         <v>5769</v>
       </c>
       <c r="O54" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P54" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="Q54">
+        <v>1951</v>
       </c>
       <c r="R54" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S54">
         <v>23</v>
@@ -9137,10 +9452,10 @@
         <v>1</v>
       </c>
       <c r="U54" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V54" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="W54">
         <v>81</v>
@@ -9206,30 +9521,33 @@
         <v>15.2</v>
       </c>
       <c r="AV54" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AW54" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX54" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY54">
+        <v>1974</v>
       </c>
     </row>
-    <row r="55" spans="1:50">
+    <row r="55" spans="1:51">
       <c r="A55" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C55" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55">
         <v>21</v>
       </c>
       <c r="E55" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F55">
         <v>12.8</v>
@@ -9244,7 +9562,7 @@
         <v>0.753</v>
       </c>
       <c r="J55" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K55">
         <v>5260</v>
@@ -9253,19 +9571,22 @@
         <v>1424</v>
       </c>
       <c r="M55" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N55">
         <v>5260</v>
       </c>
       <c r="O55" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P55" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="Q55">
+        <v>1952</v>
       </c>
       <c r="R55" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="S55">
         <v>21</v>
@@ -9274,10 +9595,10 @@
         <v>1</v>
       </c>
       <c r="U55" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V55" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="W55">
         <v>80</v>
@@ -9325,10 +9646,10 @@
         <v>1.7</v>
       </c>
       <c r="AQ55" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AR55" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AT55">
         <v>3.2</v>
@@ -9337,30 +9658,33 @@
         <v>18</v>
       </c>
       <c r="AV55" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AW55" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX55" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY55">
+        <v>1973</v>
       </c>
     </row>
-    <row r="56" spans="1:50">
+    <row r="56" spans="1:51">
       <c r="A56" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B56" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C56" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56">
         <v>22</v>
       </c>
       <c r="E56" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F56">
         <v>77</v>
@@ -9375,7 +9699,7 @@
         <v>0.67</v>
       </c>
       <c r="J56" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K56">
         <v>5160</v>
@@ -9384,19 +9708,22 @@
         <v>1403</v>
       </c>
       <c r="M56" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N56">
         <v>5160</v>
       </c>
       <c r="O56" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P56" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="Q56">
+        <v>1950</v>
       </c>
       <c r="R56" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="S56">
         <v>22</v>
@@ -9405,10 +9732,10 @@
         <v>1</v>
       </c>
       <c r="U56" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V56" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="W56">
         <v>82</v>
@@ -9456,10 +9783,10 @@
         <v>4.3</v>
       </c>
       <c r="AQ56" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AR56" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AT56">
         <v>2.3</v>
@@ -9468,30 +9795,33 @@
         <v>24.5</v>
       </c>
       <c r="AV56" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AW56" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX56" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY56">
+        <v>1972</v>
       </c>
     </row>
-    <row r="57" spans="1:50">
+    <row r="57" spans="1:51">
       <c r="A57" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C57" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57">
         <v>22</v>
       </c>
       <c r="E57" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F57">
         <v>36</v>
@@ -9506,7 +9836,7 @@
         <v>0.367</v>
       </c>
       <c r="J57" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K57">
         <v>4414</v>
@@ -9515,19 +9845,22 @@
         <v>1260</v>
       </c>
       <c r="M57" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N57">
         <v>4414</v>
       </c>
       <c r="O57" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P57" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="Q57">
+        <v>1949</v>
       </c>
       <c r="R57" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="S57">
         <v>22</v>
@@ -9536,10 +9869,10 @@
         <v>1</v>
       </c>
       <c r="U57" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V57" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="W57">
         <v>81</v>
@@ -9587,10 +9920,10 @@
         <v>2.8</v>
       </c>
       <c r="AQ57" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AR57" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AT57">
         <v>4.3</v>
@@ -9599,30 +9932,33 @@
         <v>17</v>
       </c>
       <c r="AV57" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AW57" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX57" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY57">
+        <v>1971</v>
       </c>
     </row>
-    <row r="58" spans="1:50">
+    <row r="58" spans="1:51">
       <c r="A58" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C58" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58">
         <v>22</v>
       </c>
       <c r="E58" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F58">
         <v>36</v>
@@ -9637,7 +9973,7 @@
         <v>0.367</v>
       </c>
       <c r="J58" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K58">
         <v>4488</v>
@@ -9646,19 +9982,22 @@
         <v>1276</v>
       </c>
       <c r="M58" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N58">
         <v>4488</v>
       </c>
       <c r="O58" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P58" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="Q58">
+        <v>1949</v>
       </c>
       <c r="R58" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="S58">
         <v>22</v>
@@ -9667,10 +10006,10 @@
         <v>1</v>
       </c>
       <c r="U58" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V58" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="W58">
         <v>82</v>
@@ -9718,10 +10057,10 @@
         <v>4.8</v>
       </c>
       <c r="AQ58" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AR58" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AT58">
         <v>2.4</v>
@@ -9730,30 +10069,33 @@
         <v>24.8</v>
       </c>
       <c r="AV58" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AW58" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX58" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY58">
+        <v>1971</v>
       </c>
     </row>
-    <row r="59" spans="1:50">
+    <row r="59" spans="1:51">
       <c r="A59" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C59" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D59">
         <v>22</v>
       </c>
       <c r="E59" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F59">
         <v>78</v>
@@ -9768,7 +10110,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K59">
         <v>4157</v>
@@ -9777,19 +10119,22 @@
         <v>1204</v>
       </c>
       <c r="M59" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N59">
         <v>4157</v>
       </c>
       <c r="O59" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P59" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="Q59">
+        <v>1948</v>
       </c>
       <c r="R59" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="S59">
         <v>22</v>
@@ -9798,10 +10143,10 @@
         <v>1</v>
       </c>
       <c r="U59" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V59" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="W59">
         <v>82</v>
@@ -9849,10 +10194,10 @@
         <v>4.1</v>
       </c>
       <c r="AQ59" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AR59" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AT59">
         <v>3.5</v>
@@ -9861,30 +10206,33 @@
         <v>28.8</v>
       </c>
       <c r="AV59" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AW59" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX59" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY59">
+        <v>1970</v>
       </c>
     </row>
-    <row r="60" spans="1:50">
+    <row r="60" spans="1:51">
       <c r="A60" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B60" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C60" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D60">
         <v>22</v>
       </c>
       <c r="E60" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F60">
         <v>53</v>
@@ -9899,7 +10247,7 @@
         <v>0.679</v>
       </c>
       <c r="J60" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K60">
         <v>3888</v>
@@ -9908,19 +10256,22 @@
         <v>1155</v>
       </c>
       <c r="M60" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N60">
         <v>3888</v>
       </c>
       <c r="O60" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P60" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="Q60">
+        <v>1947</v>
       </c>
       <c r="R60" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="S60">
         <v>22</v>
@@ -9929,10 +10280,10 @@
         <v>1</v>
       </c>
       <c r="U60" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V60" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="W60">
         <v>82</v>
@@ -9980,10 +10331,10 @@
         <v>2.6</v>
       </c>
       <c r="AQ60" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AR60" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AT60">
         <v>3.4</v>
@@ -9992,30 +10343,33 @@
         <v>13.8</v>
       </c>
       <c r="AV60" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AW60" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX60" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY60">
+        <v>1969</v>
       </c>
     </row>
-    <row r="61" spans="1:50">
+    <row r="61" spans="1:51">
       <c r="A61" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B61" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C61" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D61">
         <v>23</v>
       </c>
       <c r="E61" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F61">
         <v>78</v>
@@ -10030,7 +10384,7 @@
         <v>0.987</v>
       </c>
       <c r="J61" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K61">
         <v>3221</v>
@@ -10039,19 +10393,22 @@
         <v>949</v>
       </c>
       <c r="M61" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N61">
         <v>3221</v>
       </c>
       <c r="O61" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P61" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="Q61">
+        <v>1945</v>
       </c>
       <c r="R61" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="S61">
         <v>23</v>
@@ -10060,10 +10417,10 @@
         <v>1</v>
       </c>
       <c r="U61" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V61" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="W61">
         <v>82</v>
@@ -10111,10 +10468,10 @@
         <v>4.3</v>
       </c>
       <c r="AQ61" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AR61" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AT61">
         <v>3.4</v>
@@ -10123,30 +10480,33 @@
         <v>24.3</v>
       </c>
       <c r="AV61" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AW61" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX61" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY61">
+        <v>1968</v>
       </c>
     </row>
-    <row r="62" spans="1:50">
+    <row r="62" spans="1:51">
       <c r="A62" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B62" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C62" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D62">
         <v>23</v>
       </c>
       <c r="E62" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F62">
         <v>74</v>
@@ -10161,7 +10521,7 @@
         <v>0.822</v>
       </c>
       <c r="J62" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K62">
         <v>3010</v>
@@ -10170,19 +10530,22 @@
         <v>869</v>
       </c>
       <c r="M62" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N62">
         <v>3010</v>
       </c>
       <c r="O62" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P62" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="Q62">
+        <v>1944</v>
       </c>
       <c r="R62" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S62">
         <v>23</v>
@@ -10191,10 +10554,10 @@
         <v>1</v>
       </c>
       <c r="U62" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V62" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="W62">
         <v>80</v>
@@ -10242,10 +10605,10 @@
         <v>4.1</v>
       </c>
       <c r="AQ62" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AR62" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AT62">
         <v>2.7</v>
@@ -10254,30 +10617,33 @@
         <v>20</v>
       </c>
       <c r="AV62" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AW62" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX62" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY62">
+        <v>1967</v>
       </c>
     </row>
-    <row r="63" spans="1:50">
+    <row r="63" spans="1:51">
       <c r="A63" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B63" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C63" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D63">
         <v>21</v>
       </c>
       <c r="E63" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F63">
         <v>84</v>
@@ -10292,7 +10658,7 @@
         <v>0.977</v>
       </c>
       <c r="J63" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K63">
         <v>2956</v>
@@ -10301,22 +10667,22 @@
         <v>856</v>
       </c>
       <c r="M63" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N63">
         <v>2956</v>
       </c>
       <c r="O63" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P63" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q63">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="R63" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="S63">
         <v>21</v>
@@ -10325,10 +10691,10 @@
         <v>1</v>
       </c>
       <c r="U63" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V63" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="W63">
         <v>80</v>
@@ -10376,10 +10742,10 @@
         <v>2.2</v>
       </c>
       <c r="AQ63" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AR63" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AT63">
         <v>3.7</v>
@@ -10388,30 +10754,33 @@
         <v>25.7</v>
       </c>
       <c r="AV63" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AW63" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX63" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY63">
+        <v>1966</v>
       </c>
     </row>
-    <row r="64" spans="1:50">
+    <row r="64" spans="1:51">
       <c r="A64" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B64" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C64" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D64">
         <v>22</v>
       </c>
       <c r="E64" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F64">
         <v>47</v>
@@ -10426,7 +10795,7 @@
         <v>0.595</v>
       </c>
       <c r="J64" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K64">
         <v>2847</v>
@@ -10435,19 +10804,22 @@
         <v>839</v>
       </c>
       <c r="M64" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N64">
         <v>2847</v>
       </c>
       <c r="O64" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P64" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="Q64">
+        <v>1943</v>
       </c>
       <c r="R64" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="S64">
         <v>22</v>
@@ -10456,10 +10828,10 @@
         <v>1</v>
       </c>
       <c r="U64" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V64" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="W64">
         <v>80</v>
@@ -10507,10 +10879,10 @@
         <v>1.7</v>
       </c>
       <c r="AQ64" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AR64" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AT64">
         <v>4.2</v>
@@ -10519,30 +10891,33 @@
         <v>19.5</v>
       </c>
       <c r="AV64" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AW64" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX64" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY64">
+        <v>1965</v>
       </c>
     </row>
-    <row r="65" spans="1:50">
+    <row r="65" spans="1:51">
       <c r="A65" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B65" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C65" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D65">
         <v>23</v>
       </c>
       <c r="E65" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F65">
         <v>73.5</v>
@@ -10557,7 +10932,7 @@
         <v>0.886</v>
       </c>
       <c r="J65" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K65">
         <v>2652</v>
@@ -10566,19 +10941,22 @@
         <v>801</v>
       </c>
       <c r="M65" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N65">
         <v>2652</v>
       </c>
       <c r="O65" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P65" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="Q65">
+        <v>1941</v>
       </c>
       <c r="R65" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="S65">
         <v>23</v>
@@ -10587,10 +10965,10 @@
         <v>1</v>
       </c>
       <c r="U65" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V65" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="W65">
         <v>79</v>
@@ -10638,10 +11016,10 @@
         <v>2.6</v>
       </c>
       <c r="AQ65" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AR65" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AT65">
         <v>3.8</v>
@@ -10650,30 +11028,33 @@
         <v>17.7</v>
       </c>
       <c r="AV65" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AW65" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX65" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY65">
+        <v>1964</v>
       </c>
     </row>
-    <row r="66" spans="1:50">
+    <row r="66" spans="1:51">
       <c r="A66" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B66" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C66" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D66">
         <v>24</v>
       </c>
       <c r="E66" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F66">
         <v>73</v>
@@ -10688,7 +11069,7 @@
         <v>0.859</v>
       </c>
       <c r="J66" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K66">
         <v>2012</v>
@@ -10697,19 +11078,22 @@
         <v>664</v>
       </c>
       <c r="M66" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N66">
         <v>2012</v>
       </c>
       <c r="O66" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P66" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="Q66">
+        <v>1935</v>
       </c>
       <c r="R66" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="S66">
         <v>24</v>
@@ -10718,10 +11102,10 @@
         <v>1</v>
       </c>
       <c r="U66" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V66" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="W66">
         <v>70</v>
@@ -10769,10 +11153,10 @@
         <v>4.1</v>
       </c>
       <c r="AQ66" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AR66" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AT66">
         <v>3.9</v>
@@ -10781,13 +11165,16 @@
         <v>24.9</v>
       </c>
       <c r="AV66" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AW66" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AX66" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="AY66">
+        <v>1959</v>
       </c>
     </row>
   </sheetData>

--- a/nba_roy_winners.xlsx
+++ b/nba_roy_winners.xlsx
@@ -1437,13 +1437,13 @@
         <v>114</v>
       </c>
       <c r="Q2">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="R2" t="s">
         <v>276</v>
       </c>
       <c r="S2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -1592,13 +1592,13 @@
         <v>115</v>
       </c>
       <c r="Q3">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="R3" t="s">
         <v>277</v>
       </c>
       <c r="S3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -1747,13 +1747,13 @@
         <v>116</v>
       </c>
       <c r="Q4">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="R4" t="s">
         <v>277</v>
       </c>
       <c r="S4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -1902,13 +1902,13 @@
         <v>117</v>
       </c>
       <c r="Q5">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="R5" t="s">
         <v>278</v>
       </c>
       <c r="S5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T5">
         <v>1</v>
@@ -2057,13 +2057,13 @@
         <v>118</v>
       </c>
       <c r="Q6">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="R6" t="s">
         <v>278</v>
       </c>
       <c r="S6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -2212,13 +2212,13 @@
         <v>119</v>
       </c>
       <c r="Q7">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="R7" t="s">
         <v>279</v>
       </c>
       <c r="S7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T7">
         <v>1</v>
@@ -2367,13 +2367,13 @@
         <v>120</v>
       </c>
       <c r="Q8">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="R8" t="s">
         <v>278</v>
       </c>
       <c r="S8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -2522,13 +2522,13 @@
         <v>121</v>
       </c>
       <c r="Q9">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="R9" t="s">
         <v>279</v>
       </c>
       <c r="S9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T9">
         <v>1</v>
@@ -2677,13 +2677,13 @@
         <v>122</v>
       </c>
       <c r="Q10">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="R10" t="s">
         <v>276</v>
       </c>
       <c r="S10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T10">
         <v>1</v>
@@ -2832,13 +2832,13 @@
         <v>123</v>
       </c>
       <c r="Q11">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="R11" t="s">
         <v>280</v>
       </c>
       <c r="S11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T11">
         <v>1</v>
@@ -2987,13 +2987,13 @@
         <v>124</v>
       </c>
       <c r="Q12">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="R12" t="s">
         <v>278</v>
       </c>
       <c r="S12">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -3142,13 +3142,13 @@
         <v>125</v>
       </c>
       <c r="Q13">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="R13" t="s">
         <v>278</v>
       </c>
       <c r="S13">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T13">
         <v>1</v>
@@ -3297,13 +3297,13 @@
         <v>126</v>
       </c>
       <c r="Q14">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="R14" t="s">
         <v>278</v>
       </c>
       <c r="S14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T14">
         <v>1</v>
@@ -3452,13 +3452,13 @@
         <v>127</v>
       </c>
       <c r="Q15">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="R15" t="s">
         <v>277</v>
       </c>
       <c r="S15">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T15">
         <v>1</v>
@@ -3607,13 +3607,13 @@
         <v>128</v>
       </c>
       <c r="Q16">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="R16" t="s">
         <v>279</v>
       </c>
       <c r="S16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T16">
         <v>1</v>
@@ -3762,13 +3762,13 @@
         <v>129</v>
       </c>
       <c r="Q17">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="R17" t="s">
         <v>278</v>
       </c>
       <c r="S17">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T17">
         <v>1</v>
@@ -3917,13 +3917,13 @@
         <v>130</v>
       </c>
       <c r="Q18">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="R18" t="s">
         <v>279</v>
       </c>
       <c r="S18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T18">
         <v>1</v>
@@ -4072,13 +4072,13 @@
         <v>131</v>
       </c>
       <c r="Q19">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="R19" t="s">
         <v>279</v>
       </c>
       <c r="S19">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T19">
         <v>1</v>
@@ -4227,13 +4227,13 @@
         <v>132</v>
       </c>
       <c r="Q20">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="R20" t="s">
         <v>278</v>
       </c>
       <c r="S20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T20">
         <v>1</v>
@@ -4382,13 +4382,13 @@
         <v>133</v>
       </c>
       <c r="Q21">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="R21" t="s">
         <v>277</v>
       </c>
       <c r="S21">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T21">
         <v>1</v>
@@ -4537,13 +4537,13 @@
         <v>134</v>
       </c>
       <c r="Q22">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="R22" t="s">
         <v>279</v>
       </c>
       <c r="S22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T22">
         <v>1</v>
@@ -4692,13 +4692,13 @@
         <v>135</v>
       </c>
       <c r="Q23">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="R23" t="s">
         <v>277</v>
       </c>
       <c r="S23">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T23">
         <v>1</v>
@@ -4847,13 +4847,13 @@
         <v>136</v>
       </c>
       <c r="Q24">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="R24" t="s">
         <v>277</v>
       </c>
       <c r="S24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T24">
         <v>1</v>
@@ -5002,13 +5002,13 @@
         <v>137</v>
       </c>
       <c r="Q25">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="R25" t="s">
         <v>280</v>
       </c>
       <c r="S25">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T25">
         <v>1</v>
@@ -5157,13 +5157,13 @@
         <v>138</v>
       </c>
       <c r="Q26">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="R26" t="s">
         <v>277</v>
       </c>
       <c r="S26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T26">
         <v>1</v>
@@ -5312,13 +5312,13 @@
         <v>139</v>
       </c>
       <c r="Q27">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="R27" t="s">
         <v>278</v>
       </c>
       <c r="S27">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T27">
         <v>1</v>
@@ -5467,13 +5467,13 @@
         <v>140</v>
       </c>
       <c r="Q28">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="R28" t="s">
         <v>280</v>
       </c>
       <c r="S28">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T28">
         <v>1</v>
@@ -5622,13 +5622,13 @@
         <v>141</v>
       </c>
       <c r="Q29">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="R29" t="s">
         <v>277</v>
       </c>
       <c r="S29">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T29">
         <v>1</v>
@@ -5777,13 +5777,13 @@
         <v>142</v>
       </c>
       <c r="Q30">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="R30" t="s">
         <v>278</v>
       </c>
       <c r="S30">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T30">
         <v>1</v>
@@ -5932,13 +5932,13 @@
         <v>143</v>
       </c>
       <c r="Q31">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="R31" t="s">
         <v>278</v>
       </c>
       <c r="S31">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T31">
         <v>1</v>
@@ -6087,13 +6087,13 @@
         <v>144</v>
       </c>
       <c r="Q32">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="R32" t="s">
         <v>280</v>
       </c>
       <c r="S32">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T32">
         <v>1</v>
@@ -6242,13 +6242,13 @@
         <v>145</v>
       </c>
       <c r="Q33">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="R33" t="s">
         <v>278</v>
       </c>
       <c r="S33">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T33">
         <v>1</v>
@@ -6397,13 +6397,13 @@
         <v>146</v>
       </c>
       <c r="Q34">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="R34" t="s">
         <v>276</v>
       </c>
       <c r="S34">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T34">
         <v>1</v>
@@ -6552,13 +6552,13 @@
         <v>147</v>
       </c>
       <c r="Q35">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="R35" t="s">
         <v>276</v>
       </c>
       <c r="S35">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T35">
         <v>1</v>
@@ -6707,13 +6707,13 @@
         <v>148</v>
       </c>
       <c r="Q36">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="R36" t="s">
         <v>277</v>
       </c>
       <c r="S36">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T36">
         <v>1</v>
@@ -6862,13 +6862,13 @@
         <v>149</v>
       </c>
       <c r="Q37">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="R37" t="s">
         <v>277</v>
       </c>
       <c r="S37">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T37">
         <v>1</v>
@@ -7017,13 +7017,13 @@
         <v>150</v>
       </c>
       <c r="Q38">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="R38" t="s">
         <v>276</v>
       </c>
       <c r="S38">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T38">
         <v>1</v>
@@ -7172,13 +7172,13 @@
         <v>151</v>
       </c>
       <c r="Q39">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="R39" t="s">
         <v>279</v>
       </c>
       <c r="S39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T39">
         <v>1</v>
@@ -7327,13 +7327,13 @@
         <v>152</v>
       </c>
       <c r="Q40">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="R40" t="s">
         <v>278</v>
       </c>
       <c r="S40">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T40">
         <v>1</v>
@@ -7482,13 +7482,13 @@
         <v>153</v>
       </c>
       <c r="Q41">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="R41" t="s">
         <v>280</v>
       </c>
       <c r="S41">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T41">
         <v>1</v>
@@ -7637,13 +7637,13 @@
         <v>154</v>
       </c>
       <c r="Q42">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="R42" t="s">
         <v>276</v>
       </c>
       <c r="S42">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T42">
         <v>1</v>
@@ -7792,13 +7792,13 @@
         <v>155</v>
       </c>
       <c r="Q43">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="R43" t="s">
         <v>279</v>
       </c>
       <c r="S43">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T43">
         <v>1</v>
@@ -7947,13 +7947,13 @@
         <v>156</v>
       </c>
       <c r="Q44">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="R44" t="s">
         <v>276</v>
       </c>
       <c r="S44">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T44">
         <v>1</v>
@@ -8102,13 +8102,13 @@
         <v>157</v>
       </c>
       <c r="Q45">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="R45" t="s">
         <v>277</v>
       </c>
       <c r="S45">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T45">
         <v>1</v>
@@ -8257,13 +8257,13 @@
         <v>158</v>
       </c>
       <c r="Q46">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="R46" t="s">
         <v>277</v>
       </c>
       <c r="S46">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T46">
         <v>1</v>
@@ -8412,13 +8412,13 @@
         <v>159</v>
       </c>
       <c r="Q47">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="R47" t="s">
         <v>279</v>
       </c>
       <c r="S47">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T47">
         <v>1</v>
@@ -8564,13 +8564,13 @@
         <v>160</v>
       </c>
       <c r="Q48">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="R48" t="s">
         <v>277</v>
       </c>
       <c r="S48">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T48">
         <v>1</v>
@@ -8719,13 +8719,13 @@
         <v>161</v>
       </c>
       <c r="Q49">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="R49" t="s">
         <v>278</v>
       </c>
       <c r="S49">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T49">
         <v>1</v>
@@ -8865,13 +8865,13 @@
         <v>162</v>
       </c>
       <c r="Q50">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="R50" t="s">
         <v>280</v>
       </c>
       <c r="S50">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T50">
         <v>1</v>
@@ -9011,13 +9011,13 @@
         <v>163</v>
       </c>
       <c r="Q51">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="R51" t="s">
         <v>280</v>
       </c>
       <c r="S51">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T51">
         <v>1</v>
@@ -9154,13 +9154,13 @@
         <v>164</v>
       </c>
       <c r="Q52">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="R52" t="s">
         <v>276</v>
       </c>
       <c r="S52">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T52">
         <v>1</v>
@@ -9297,13 +9297,13 @@
         <v>165</v>
       </c>
       <c r="Q53">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="R53" t="s">
         <v>280</v>
       </c>
       <c r="S53">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T53">
         <v>1</v>
@@ -9440,13 +9440,13 @@
         <v>166</v>
       </c>
       <c r="Q54">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="R54" t="s">
         <v>278</v>
       </c>
       <c r="S54">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T54">
         <v>1</v>
@@ -9583,13 +9583,13 @@
         <v>167</v>
       </c>
       <c r="Q55">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="R55" t="s">
         <v>277</v>
       </c>
       <c r="S55">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T55">
         <v>1</v>
@@ -9720,13 +9720,13 @@
         <v>168</v>
       </c>
       <c r="Q56">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="R56" t="s">
         <v>277</v>
       </c>
       <c r="S56">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T56">
         <v>1</v>
@@ -9857,13 +9857,13 @@
         <v>169</v>
       </c>
       <c r="Q57">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="R57" t="s">
         <v>276</v>
       </c>
       <c r="S57">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T57">
         <v>1</v>
@@ -9994,13 +9994,13 @@
         <v>170</v>
       </c>
       <c r="Q58">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="R58" t="s">
         <v>279</v>
       </c>
       <c r="S58">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T58">
         <v>1</v>
@@ -10131,13 +10131,13 @@
         <v>171</v>
       </c>
       <c r="Q59">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="R59" t="s">
         <v>276</v>
       </c>
       <c r="S59">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T59">
         <v>1</v>
@@ -10268,13 +10268,13 @@
         <v>172</v>
       </c>
       <c r="Q60">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="R60" t="s">
         <v>276</v>
       </c>
       <c r="S60">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T60">
         <v>1</v>
@@ -10405,13 +10405,13 @@
         <v>173</v>
       </c>
       <c r="Q61">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="R61" t="s">
         <v>279</v>
       </c>
       <c r="S61">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T61">
         <v>1</v>
@@ -10542,13 +10542,13 @@
         <v>174</v>
       </c>
       <c r="Q62">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="R62" t="s">
         <v>278</v>
       </c>
       <c r="S62">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T62">
         <v>1</v>
@@ -10679,13 +10679,13 @@
         <v>175</v>
       </c>
       <c r="Q63">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="R63" t="s">
         <v>280</v>
       </c>
       <c r="S63">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T63">
         <v>1</v>
@@ -10816,13 +10816,13 @@
         <v>176</v>
       </c>
       <c r="Q64">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="R64" t="s">
         <v>276</v>
       </c>
       <c r="S64">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T64">
         <v>1</v>
@@ -10953,13 +10953,13 @@
         <v>177</v>
       </c>
       <c r="Q65">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="R65" t="s">
         <v>277</v>
       </c>
       <c r="S65">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T65">
         <v>1</v>
@@ -11090,13 +11090,13 @@
         <v>178</v>
       </c>
       <c r="Q66">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="R66" t="s">
         <v>280</v>
       </c>
       <c r="S66">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T66">
         <v>1</v>

--- a/nba_roy_winners.xlsx
+++ b/nba_roy_winners.xlsx
@@ -46,19 +46,19 @@
     <t>winner</t>
   </si>
   <si>
-    <t>seas_id_x</t>
-  </si>
-  <si>
-    <t>player_id</t>
+    <t>seas_id</t>
+  </si>
+  <si>
+    <t>player_id_x</t>
   </si>
   <si>
     <t>season_x</t>
   </si>
   <si>
-    <t>seas_id_y</t>
-  </si>
-  <si>
     <t>season_ending_year_y</t>
+  </si>
+  <si>
+    <t>player_id_y</t>
   </si>
   <si>
     <t>player_y</t>
@@ -1427,11 +1427,11 @@
       <c r="M2" t="s">
         <v>214</v>
       </c>
-      <c r="N2">
-        <v>31850</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="N2" t="s">
         <v>51</v>
+      </c>
+      <c r="O2">
+        <v>5062</v>
       </c>
       <c r="P2" t="s">
         <v>114</v>
@@ -1582,11 +1582,11 @@
       <c r="M3" t="s">
         <v>215</v>
       </c>
-      <c r="N3">
-        <v>30981</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="N3" t="s">
         <v>52</v>
+      </c>
+      <c r="O3">
+        <v>3962</v>
       </c>
       <c r="P3" t="s">
         <v>115</v>
@@ -1737,11 +1737,11 @@
       <c r="M4" t="s">
         <v>216</v>
       </c>
-      <c r="N4">
-        <v>30324</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="N4" t="s">
         <v>53</v>
+      </c>
+      <c r="O4">
+        <v>4528</v>
       </c>
       <c r="P4" t="s">
         <v>116</v>
@@ -1892,11 +1892,11 @@
       <c r="M5" t="s">
         <v>217</v>
       </c>
-      <c r="N5">
-        <v>29366</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="N5" t="s">
         <v>54</v>
+      </c>
+      <c r="O5">
+        <v>3187</v>
       </c>
       <c r="P5" t="s">
         <v>117</v>
@@ -2047,11 +2047,11 @@
       <c r="M6" t="s">
         <v>218</v>
       </c>
-      <c r="N6">
-        <v>28537</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="N6" t="s">
         <v>55</v>
+      </c>
+      <c r="O6">
+        <v>2223</v>
       </c>
       <c r="P6" t="s">
         <v>118</v>
@@ -2202,11 +2202,11 @@
       <c r="M7" t="s">
         <v>219</v>
       </c>
-      <c r="N7">
-        <v>28015</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="N7" t="s">
         <v>56</v>
+      </c>
+      <c r="O7">
+        <v>3372</v>
       </c>
       <c r="P7" t="s">
         <v>119</v>
@@ -2357,11 +2357,11 @@
       <c r="M8" t="s">
         <v>220</v>
       </c>
-      <c r="N8">
-        <v>26962</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="N8" t="s">
         <v>57</v>
+      </c>
+      <c r="O8">
+        <v>354</v>
       </c>
       <c r="P8" t="s">
         <v>120</v>
@@ -2512,11 +2512,11 @@
       <c r="M9" t="s">
         <v>221</v>
       </c>
-      <c r="N9">
-        <v>26692</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="N9" t="s">
         <v>58</v>
+      </c>
+      <c r="O9">
+        <v>3412</v>
       </c>
       <c r="P9" t="s">
         <v>121</v>
@@ -2667,11 +2667,11 @@
       <c r="M10" t="s">
         <v>222</v>
       </c>
-      <c r="N10">
-        <v>26059</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="N10" t="s">
         <v>59</v>
+      </c>
+      <c r="O10">
+        <v>2978</v>
       </c>
       <c r="P10" t="s">
         <v>122</v>
@@ -2822,11 +2822,11 @@
       <c r="M11" t="s">
         <v>223</v>
       </c>
-      <c r="N11">
-        <v>25135</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="N11" t="s">
         <v>60</v>
+      </c>
+      <c r="O11">
+        <v>196</v>
       </c>
       <c r="P11" t="s">
         <v>123</v>
@@ -2977,11 +2977,11 @@
       <c r="M12" t="s">
         <v>224</v>
       </c>
-      <c r="N12">
-        <v>24904</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="N12" t="s">
         <v>61</v>
+      </c>
+      <c r="O12">
+        <v>3631</v>
       </c>
       <c r="P12" t="s">
         <v>124</v>
@@ -3132,11 +3132,11 @@
       <c r="M13" t="s">
         <v>225</v>
       </c>
-      <c r="N13">
-        <v>24017</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="N13" t="s">
         <v>62</v>
+      </c>
+      <c r="O13">
+        <v>1095</v>
       </c>
       <c r="P13" t="s">
         <v>125</v>
@@ -3287,11 +3287,11 @@
       <c r="M14" t="s">
         <v>226</v>
       </c>
-      <c r="N14">
-        <v>23691</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="N14" t="s">
         <v>63</v>
+      </c>
+      <c r="O14">
+        <v>3182</v>
       </c>
       <c r="P14" t="s">
         <v>126</v>
@@ -3442,11 +3442,11 @@
       <c r="M15" t="s">
         <v>227</v>
       </c>
-      <c r="N15">
-        <v>22793</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="N15" t="s">
         <v>64</v>
+      </c>
+      <c r="O15">
+        <v>454</v>
       </c>
       <c r="P15" t="s">
         <v>127</v>
@@ -3597,11 +3597,11 @@
       <c r="M16" t="s">
         <v>228</v>
       </c>
-      <c r="N16">
-        <v>22713</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="N16" t="s">
         <v>65</v>
+      </c>
+      <c r="O16">
+        <v>5021</v>
       </c>
       <c r="P16" t="s">
         <v>128</v>
@@ -3752,11 +3752,11 @@
       <c r="M17" t="s">
         <v>229</v>
       </c>
-      <c r="N17">
-        <v>21737</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="N17" t="s">
         <v>66</v>
+      </c>
+      <c r="O17">
+        <v>1344</v>
       </c>
       <c r="P17" t="s">
         <v>129</v>
@@ -3907,11 +3907,11 @@
       <c r="M18" t="s">
         <v>230</v>
       </c>
-      <c r="N18">
-        <v>21290</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="N18" t="s">
         <v>67</v>
+      </c>
+      <c r="O18">
+        <v>3089</v>
       </c>
       <c r="P18" t="s">
         <v>130</v>
@@ -4062,11 +4062,11 @@
       <c r="M19" t="s">
         <v>231</v>
       </c>
-      <c r="N19">
-        <v>20526</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="N19" t="s">
         <v>68</v>
+      </c>
+      <c r="O19">
+        <v>614</v>
       </c>
       <c r="P19" t="s">
         <v>131</v>
@@ -4217,11 +4217,11 @@
       <c r="M20" t="s">
         <v>232</v>
       </c>
-      <c r="N20">
-        <v>20001</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="N20" t="s">
         <v>69</v>
+      </c>
+      <c r="O20">
+        <v>906</v>
       </c>
       <c r="P20" t="s">
         <v>132</v>
@@ -4372,11 +4372,11 @@
       <c r="M21" t="s">
         <v>233</v>
       </c>
-      <c r="N21">
-        <v>19508</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="N21" t="s">
         <v>70</v>
+      </c>
+      <c r="O21">
+        <v>1667</v>
       </c>
       <c r="P21" t="s">
         <v>133</v>
@@ -4527,11 +4527,11 @@
       <c r="M22" t="s">
         <v>234</v>
       </c>
-      <c r="N22">
-        <v>19051</v>
-      </c>
-      <c r="O22" t="s">
+      <c r="N22" t="s">
         <v>71</v>
+      </c>
+      <c r="O22">
+        <v>3260</v>
       </c>
       <c r="P22" t="s">
         <v>134</v>
@@ -4682,11 +4682,11 @@
       <c r="M23" t="s">
         <v>235</v>
       </c>
-      <c r="N23">
-        <v>18262</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="N23" t="s">
         <v>72</v>
+      </c>
+      <c r="O23">
+        <v>153</v>
       </c>
       <c r="P23" t="s">
         <v>135</v>
@@ -4837,11 +4837,11 @@
       <c r="M24" t="s">
         <v>236</v>
       </c>
-      <c r="N24">
-        <v>18110</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="N24" t="s">
         <v>73</v>
+      </c>
+      <c r="O24">
+        <v>3989</v>
       </c>
       <c r="P24" t="s">
         <v>136</v>
@@ -4992,11 +4992,11 @@
       <c r="M25" t="s">
         <v>237</v>
       </c>
-      <c r="N25">
-        <v>17575</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="N25" t="s">
         <v>74</v>
+      </c>
+      <c r="O25">
+        <v>3709</v>
       </c>
       <c r="P25" t="s">
         <v>137</v>
@@ -5147,11 +5147,11 @@
       <c r="M26" t="s">
         <v>238</v>
       </c>
-      <c r="N26">
-        <v>16891</v>
-      </c>
-      <c r="O26" t="s">
+      <c r="N26" t="s">
         <v>75</v>
+      </c>
+      <c r="O26">
+        <v>1660</v>
       </c>
       <c r="P26" t="s">
         <v>138</v>
@@ -5302,11 +5302,11 @@
       <c r="M27" t="s">
         <v>238</v>
       </c>
-      <c r="N27">
-        <v>17151</v>
-      </c>
-      <c r="O27" t="s">
+      <c r="N27" t="s">
         <v>75</v>
+      </c>
+      <c r="O27">
+        <v>4687</v>
       </c>
       <c r="P27" t="s">
         <v>139</v>
@@ -5457,11 +5457,11 @@
       <c r="M28" t="s">
         <v>239</v>
       </c>
-      <c r="N28">
-        <v>16697</v>
-      </c>
-      <c r="O28" t="s">
+      <c r="N28" t="s">
         <v>76</v>
+      </c>
+      <c r="O28">
+        <v>5066</v>
       </c>
       <c r="P28" t="s">
         <v>140</v>
@@ -5612,11 +5612,11 @@
       <c r="M29" t="s">
         <v>240</v>
       </c>
-      <c r="N29">
-        <v>16152</v>
-      </c>
-      <c r="O29" t="s">
+      <c r="N29" t="s">
         <v>77</v>
+      </c>
+      <c r="O29">
+        <v>4816</v>
       </c>
       <c r="P29" t="s">
         <v>141</v>
@@ -5767,11 +5767,11 @@
       <c r="M30" t="s">
         <v>241</v>
       </c>
-      <c r="N30">
-        <v>15105</v>
-      </c>
-      <c r="O30" t="s">
+      <c r="N30" t="s">
         <v>78</v>
+      </c>
+      <c r="O30">
+        <v>132</v>
       </c>
       <c r="P30" t="s">
         <v>142</v>
@@ -5922,11 +5922,11 @@
       <c r="M31" t="s">
         <v>242</v>
       </c>
-      <c r="N31">
-        <v>14657</v>
-      </c>
-      <c r="O31" t="s">
+      <c r="N31" t="s">
         <v>79</v>
+      </c>
+      <c r="O31">
+        <v>1103</v>
       </c>
       <c r="P31" t="s">
         <v>143</v>
@@ -6077,11 +6077,11 @@
       <c r="M32" t="s">
         <v>243</v>
       </c>
-      <c r="N32">
-        <v>14259</v>
-      </c>
-      <c r="O32" t="s">
+      <c r="N32" t="s">
         <v>80</v>
+      </c>
+      <c r="O32">
+        <v>1979</v>
       </c>
       <c r="P32" t="s">
         <v>144</v>
@@ -6232,11 +6232,11 @@
       <c r="M33" t="s">
         <v>243</v>
       </c>
-      <c r="N33">
-        <v>14304</v>
-      </c>
-      <c r="O33" t="s">
+      <c r="N33" t="s">
         <v>80</v>
+      </c>
+      <c r="O33">
+        <v>2419</v>
       </c>
       <c r="P33" t="s">
         <v>145</v>
@@ -6387,11 +6387,11 @@
       <c r="M34" t="s">
         <v>244</v>
       </c>
-      <c r="N34">
-        <v>13682</v>
-      </c>
-      <c r="O34" t="s">
+      <c r="N34" t="s">
         <v>81</v>
+      </c>
+      <c r="O34">
+        <v>917</v>
       </c>
       <c r="P34" t="s">
         <v>146</v>
@@ -6542,11 +6542,11 @@
       <c r="M35" t="s">
         <v>245</v>
       </c>
-      <c r="N35">
-        <v>13535</v>
-      </c>
-      <c r="O35" t="s">
+      <c r="N35" t="s">
         <v>82</v>
+      </c>
+      <c r="O35">
+        <v>4575</v>
       </c>
       <c r="P35" t="s">
         <v>147</v>
@@ -6697,11 +6697,11 @@
       <c r="M36" t="s">
         <v>246</v>
       </c>
-      <c r="N36">
-        <v>12953</v>
-      </c>
-      <c r="O36" t="s">
+      <c r="N36" t="s">
         <v>83</v>
+      </c>
+      <c r="O36">
+        <v>3226</v>
       </c>
       <c r="P36" t="s">
         <v>148</v>
@@ -6852,11 +6852,11 @@
       <c r="M37" t="s">
         <v>247</v>
       </c>
-      <c r="N37">
-        <v>12371</v>
-      </c>
-      <c r="O37" t="s">
+      <c r="N37" t="s">
         <v>84</v>
+      </c>
+      <c r="O37">
+        <v>1337</v>
       </c>
       <c r="P37" t="s">
         <v>149</v>
@@ -7007,11 +7007,11 @@
       <c r="M38" t="s">
         <v>248</v>
       </c>
-      <c r="N38">
-        <v>11893</v>
-      </c>
-      <c r="O38" t="s">
+      <c r="N38" t="s">
         <v>85</v>
+      </c>
+      <c r="O38">
+        <v>1239</v>
       </c>
       <c r="P38" t="s">
         <v>150</v>
@@ -7162,11 +7162,11 @@
       <c r="M39" t="s">
         <v>249</v>
       </c>
-      <c r="N39">
-        <v>11657</v>
-      </c>
-      <c r="O39" t="s">
+      <c r="N39" t="s">
         <v>86</v>
+      </c>
+      <c r="O39">
+        <v>3758</v>
       </c>
       <c r="P39" t="s">
         <v>151</v>
@@ -7317,11 +7317,11 @@
       <c r="M40" t="s">
         <v>250</v>
       </c>
-      <c r="N40">
-        <v>11188</v>
-      </c>
-      <c r="O40" t="s">
+      <c r="N40" t="s">
         <v>87</v>
+      </c>
+      <c r="O40">
+        <v>3485</v>
       </c>
       <c r="P40" t="s">
         <v>152</v>
@@ -7472,11 +7472,11 @@
       <c r="M41" t="s">
         <v>251</v>
       </c>
-      <c r="N41">
-        <v>10623</v>
-      </c>
-      <c r="O41" t="s">
+      <c r="N41" t="s">
         <v>88</v>
+      </c>
+      <c r="O41">
+        <v>942</v>
       </c>
       <c r="P41" t="s">
         <v>153</v>
@@ -7627,11 +7627,11 @@
       <c r="M42" t="s">
         <v>252</v>
       </c>
-      <c r="N42">
-        <v>10454</v>
-      </c>
-      <c r="O42" t="s">
+      <c r="N42" t="s">
         <v>89</v>
+      </c>
+      <c r="O42">
+        <v>3981</v>
       </c>
       <c r="P42" t="s">
         <v>154</v>
@@ -7782,11 +7782,11 @@
       <c r="M43" t="s">
         <v>253</v>
       </c>
-      <c r="N43">
-        <v>10057</v>
-      </c>
-      <c r="O43" t="s">
+      <c r="N43" t="s">
         <v>90</v>
+      </c>
+      <c r="O43">
+        <v>3643</v>
       </c>
       <c r="P43" t="s">
         <v>155</v>
@@ -7937,11 +7937,11 @@
       <c r="M44" t="s">
         <v>254</v>
       </c>
-      <c r="N44">
-        <v>9733</v>
-      </c>
-      <c r="O44" t="s">
+      <c r="N44" t="s">
         <v>91</v>
+      </c>
+      <c r="O44">
+        <v>4134</v>
       </c>
       <c r="P44" t="s">
         <v>156</v>
@@ -8092,11 +8092,11 @@
       <c r="M45" t="s">
         <v>255</v>
       </c>
-      <c r="N45">
-        <v>9452</v>
-      </c>
-      <c r="O45" t="s">
+      <c r="N45" t="s">
         <v>92</v>
+      </c>
+      <c r="O45">
+        <v>4775</v>
       </c>
       <c r="P45" t="s">
         <v>157</v>
@@ -8247,11 +8247,11 @@
       <c r="M46" t="s">
         <v>256</v>
       </c>
-      <c r="N46">
-        <v>8756</v>
-      </c>
-      <c r="O46" t="s">
+      <c r="N46" t="s">
         <v>93</v>
+      </c>
+      <c r="O46">
+        <v>683</v>
       </c>
       <c r="P46" t="s">
         <v>158</v>
@@ -8402,11 +8402,11 @@
       <c r="M47" t="s">
         <v>257</v>
       </c>
-      <c r="N47">
-        <v>8425</v>
-      </c>
-      <c r="O47" t="s">
+      <c r="N47" t="s">
         <v>94</v>
+      </c>
+      <c r="O47">
+        <v>1176</v>
       </c>
       <c r="P47" t="s">
         <v>159</v>
@@ -8554,11 +8554,11 @@
       <c r="M48" t="s">
         <v>258</v>
       </c>
-      <c r="N48">
-        <v>8191</v>
-      </c>
-      <c r="O48" t="s">
+      <c r="N48" t="s">
         <v>95</v>
+      </c>
+      <c r="O48">
+        <v>3209</v>
       </c>
       <c r="P48" t="s">
         <v>160</v>
@@ -8709,11 +8709,11 @@
       <c r="M49" t="s">
         <v>259</v>
       </c>
-      <c r="N49">
-        <v>7893</v>
-      </c>
-      <c r="O49" t="s">
+      <c r="N49" t="s">
         <v>96</v>
+      </c>
+      <c r="O49">
+        <v>4060</v>
       </c>
       <c r="P49" t="s">
         <v>161</v>
@@ -8855,11 +8855,11 @@
       <c r="M50" t="s">
         <v>260</v>
       </c>
-      <c r="N50">
-        <v>7629</v>
-      </c>
-      <c r="O50" t="s">
+      <c r="N50" t="s">
         <v>97</v>
+      </c>
+      <c r="O50">
+        <v>5118</v>
       </c>
       <c r="P50" t="s">
         <v>162</v>
@@ -9001,11 +9001,11 @@
       <c r="M51" t="s">
         <v>261</v>
       </c>
-      <c r="N51">
-        <v>6917</v>
-      </c>
-      <c r="O51" t="s">
+      <c r="N51" t="s">
         <v>98</v>
+      </c>
+      <c r="O51">
+        <v>46</v>
       </c>
       <c r="P51" t="s">
         <v>163</v>
@@ -9144,11 +9144,11 @@
       <c r="M52" t="s">
         <v>262</v>
       </c>
-      <c r="N52">
-        <v>6492</v>
-      </c>
-      <c r="O52" t="s">
+      <c r="N52" t="s">
         <v>99</v>
+      </c>
+      <c r="O52">
+        <v>145</v>
       </c>
       <c r="P52" t="s">
         <v>164</v>
@@ -9287,11 +9287,11 @@
       <c r="M53" t="s">
         <v>263</v>
       </c>
-      <c r="N53">
-        <v>6247</v>
-      </c>
-      <c r="O53" t="s">
+      <c r="N53" t="s">
         <v>100</v>
+      </c>
+      <c r="O53">
+        <v>2330</v>
       </c>
       <c r="P53" t="s">
         <v>165</v>
@@ -9430,11 +9430,11 @@
       <c r="M54" t="s">
         <v>264</v>
       </c>
-      <c r="N54">
-        <v>5769</v>
-      </c>
-      <c r="O54" t="s">
+      <c r="N54" t="s">
         <v>101</v>
+      </c>
+      <c r="O54">
+        <v>1706</v>
       </c>
       <c r="P54" t="s">
         <v>166</v>
@@ -9573,11 +9573,11 @@
       <c r="M55" t="s">
         <v>265</v>
       </c>
-      <c r="N55">
-        <v>5260</v>
-      </c>
-      <c r="O55" t="s">
+      <c r="N55" t="s">
         <v>102</v>
+      </c>
+      <c r="O55">
+        <v>512</v>
       </c>
       <c r="P55" t="s">
         <v>167</v>
@@ -9710,11 +9710,11 @@
       <c r="M56" t="s">
         <v>266</v>
       </c>
-      <c r="N56">
-        <v>5160</v>
-      </c>
-      <c r="O56" t="s">
+      <c r="N56" t="s">
         <v>103</v>
+      </c>
+      <c r="O56">
+        <v>4606</v>
       </c>
       <c r="P56" t="s">
         <v>168</v>
@@ -9847,11 +9847,11 @@
       <c r="M57" t="s">
         <v>267</v>
       </c>
-      <c r="N57">
-        <v>4414</v>
-      </c>
-      <c r="O57" t="s">
+      <c r="N57" t="s">
         <v>104</v>
+      </c>
+      <c r="O57">
+        <v>1198</v>
       </c>
       <c r="P57" t="s">
         <v>169</v>
@@ -9984,11 +9984,11 @@
       <c r="M58" t="s">
         <v>267</v>
       </c>
-      <c r="N58">
-        <v>4488</v>
-      </c>
-      <c r="O58" t="s">
+      <c r="N58" t="s">
         <v>104</v>
+      </c>
+      <c r="O58">
+        <v>1881</v>
       </c>
       <c r="P58" t="s">
         <v>170</v>
@@ -10121,11 +10121,11 @@
       <c r="M59" t="s">
         <v>268</v>
       </c>
-      <c r="N59">
-        <v>4157</v>
-      </c>
-      <c r="O59" t="s">
+      <c r="N59" t="s">
         <v>105</v>
+      </c>
+      <c r="O59">
+        <v>2974</v>
       </c>
       <c r="P59" t="s">
         <v>171</v>
@@ -10258,11 +10258,11 @@
       <c r="M60" t="s">
         <v>269</v>
       </c>
-      <c r="N60">
-        <v>3888</v>
-      </c>
-      <c r="O60" t="s">
+      <c r="N60" t="s">
         <v>106</v>
+      </c>
+      <c r="O60">
+        <v>5162</v>
       </c>
       <c r="P60" t="s">
         <v>172</v>
@@ -10395,11 +10395,11 @@
       <c r="M61" t="s">
         <v>270</v>
       </c>
-      <c r="N61">
-        <v>3221</v>
-      </c>
-      <c r="O61" t="s">
+      <c r="N61" t="s">
         <v>107</v>
+      </c>
+      <c r="O61">
+        <v>1575</v>
       </c>
       <c r="P61" t="s">
         <v>173</v>
@@ -10532,11 +10532,11 @@
       <c r="M62" t="s">
         <v>271</v>
       </c>
-      <c r="N62">
-        <v>3010</v>
-      </c>
-      <c r="O62" t="s">
+      <c r="N62" t="s">
         <v>108</v>
+      </c>
+      <c r="O62">
+        <v>1194</v>
       </c>
       <c r="P62" t="s">
         <v>174</v>
@@ -10669,11 +10669,11 @@
       <c r="M63" t="s">
         <v>272</v>
       </c>
-      <c r="N63">
-        <v>2956</v>
-      </c>
-      <c r="O63" t="s">
+      <c r="N63" t="s">
         <v>109</v>
+      </c>
+      <c r="O63">
+        <v>4264</v>
       </c>
       <c r="P63" t="s">
         <v>175</v>
@@ -10806,11 +10806,11 @@
       <c r="M64" t="s">
         <v>273</v>
       </c>
-      <c r="N64">
-        <v>2847</v>
-      </c>
-      <c r="O64" t="s">
+      <c r="N64" t="s">
         <v>110</v>
+      </c>
+      <c r="O64">
+        <v>5219</v>
       </c>
       <c r="P64" t="s">
         <v>176</v>
@@ -10943,11 +10943,11 @@
       <c r="M65" t="s">
         <v>274</v>
       </c>
-      <c r="N65">
-        <v>2652</v>
-      </c>
-      <c r="O65" t="s">
+      <c r="N65" t="s">
         <v>111</v>
+      </c>
+      <c r="O65">
+        <v>2546</v>
       </c>
       <c r="P65" t="s">
         <v>177</v>
@@ -11080,11 +11080,11 @@
       <c r="M66" t="s">
         <v>275</v>
       </c>
-      <c r="N66">
-        <v>2012</v>
-      </c>
-      <c r="O66" t="s">
+      <c r="N66" t="s">
         <v>112</v>
+      </c>
+      <c r="O66">
+        <v>1644</v>
       </c>
       <c r="P66" t="s">
         <v>178</v>

--- a/nba_roy_winners.xlsx
+++ b/nba_roy_winners.xlsx
@@ -1431,7 +1431,7 @@
         <v>51</v>
       </c>
       <c r="O2">
-        <v>5062</v>
+        <v>5069</v>
       </c>
       <c r="P2" t="s">
         <v>114</v>
@@ -1586,7 +1586,7 @@
         <v>52</v>
       </c>
       <c r="O3">
-        <v>3962</v>
+        <v>3968</v>
       </c>
       <c r="P3" t="s">
         <v>115</v>
@@ -1741,7 +1741,7 @@
         <v>53</v>
       </c>
       <c r="O4">
-        <v>4528</v>
+        <v>4535</v>
       </c>
       <c r="P4" t="s">
         <v>116</v>
@@ -1896,7 +1896,7 @@
         <v>54</v>
       </c>
       <c r="O5">
-        <v>3187</v>
+        <v>3193</v>
       </c>
       <c r="P5" t="s">
         <v>117</v>
@@ -2051,7 +2051,7 @@
         <v>55</v>
       </c>
       <c r="O6">
-        <v>2223</v>
+        <v>2227</v>
       </c>
       <c r="P6" t="s">
         <v>118</v>
@@ -2206,7 +2206,7 @@
         <v>56</v>
       </c>
       <c r="O7">
-        <v>3372</v>
+        <v>3378</v>
       </c>
       <c r="P7" t="s">
         <v>119</v>
@@ -2516,7 +2516,7 @@
         <v>58</v>
       </c>
       <c r="O9">
-        <v>3412</v>
+        <v>3418</v>
       </c>
       <c r="P9" t="s">
         <v>121</v>
@@ -2671,7 +2671,7 @@
         <v>59</v>
       </c>
       <c r="O10">
-        <v>2978</v>
+        <v>2983</v>
       </c>
       <c r="P10" t="s">
         <v>122</v>
@@ -2981,7 +2981,7 @@
         <v>61</v>
       </c>
       <c r="O12">
-        <v>3631</v>
+        <v>3637</v>
       </c>
       <c r="P12" t="s">
         <v>124</v>
@@ -3136,7 +3136,7 @@
         <v>62</v>
       </c>
       <c r="O13">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="P13" t="s">
         <v>125</v>
@@ -3291,7 +3291,7 @@
         <v>63</v>
       </c>
       <c r="O14">
-        <v>3182</v>
+        <v>3188</v>
       </c>
       <c r="P14" t="s">
         <v>126</v>
@@ -3601,7 +3601,7 @@
         <v>65</v>
       </c>
       <c r="O16">
-        <v>5021</v>
+        <v>5028</v>
       </c>
       <c r="P16" t="s">
         <v>128</v>
@@ -3756,7 +3756,7 @@
         <v>66</v>
       </c>
       <c r="O17">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="P17" t="s">
         <v>129</v>
@@ -3911,7 +3911,7 @@
         <v>67</v>
       </c>
       <c r="O18">
-        <v>3089</v>
+        <v>3094</v>
       </c>
       <c r="P18" t="s">
         <v>130</v>
@@ -4066,7 +4066,7 @@
         <v>68</v>
       </c>
       <c r="O19">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="P19" t="s">
         <v>131</v>
@@ -4221,7 +4221,7 @@
         <v>69</v>
       </c>
       <c r="O20">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P20" t="s">
         <v>132</v>
@@ -4376,7 +4376,7 @@
         <v>70</v>
       </c>
       <c r="O21">
-        <v>1667</v>
+        <v>1671</v>
       </c>
       <c r="P21" t="s">
         <v>133</v>
@@ -4531,7 +4531,7 @@
         <v>71</v>
       </c>
       <c r="O22">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="P22" t="s">
         <v>134</v>
@@ -4841,7 +4841,7 @@
         <v>73</v>
       </c>
       <c r="O24">
-        <v>3989</v>
+        <v>3995</v>
       </c>
       <c r="P24" t="s">
         <v>136</v>
@@ -4996,7 +4996,7 @@
         <v>74</v>
       </c>
       <c r="O25">
-        <v>3709</v>
+        <v>3715</v>
       </c>
       <c r="P25" t="s">
         <v>137</v>
@@ -5151,7 +5151,7 @@
         <v>75</v>
       </c>
       <c r="O26">
-        <v>1660</v>
+        <v>1664</v>
       </c>
       <c r="P26" t="s">
         <v>138</v>
@@ -5306,7 +5306,7 @@
         <v>75</v>
       </c>
       <c r="O27">
-        <v>4687</v>
+        <v>4694</v>
       </c>
       <c r="P27" t="s">
         <v>139</v>
@@ -5461,7 +5461,7 @@
         <v>76</v>
       </c>
       <c r="O28">
-        <v>5066</v>
+        <v>5073</v>
       </c>
       <c r="P28" t="s">
         <v>140</v>
@@ -5616,7 +5616,7 @@
         <v>77</v>
       </c>
       <c r="O29">
-        <v>4816</v>
+        <v>4823</v>
       </c>
       <c r="P29" t="s">
         <v>141</v>
@@ -5926,7 +5926,7 @@
         <v>79</v>
       </c>
       <c r="O31">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="P31" t="s">
         <v>143</v>
@@ -6081,7 +6081,7 @@
         <v>80</v>
       </c>
       <c r="O32">
-        <v>1979</v>
+        <v>1983</v>
       </c>
       <c r="P32" t="s">
         <v>144</v>
@@ -6236,7 +6236,7 @@
         <v>80</v>
       </c>
       <c r="O33">
-        <v>2419</v>
+        <v>2423</v>
       </c>
       <c r="P33" t="s">
         <v>145</v>
@@ -6391,7 +6391,7 @@
         <v>81</v>
       </c>
       <c r="O34">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="P34" t="s">
         <v>146</v>
@@ -6546,7 +6546,7 @@
         <v>82</v>
       </c>
       <c r="O35">
-        <v>4575</v>
+        <v>4582</v>
       </c>
       <c r="P35" t="s">
         <v>147</v>
@@ -6701,7 +6701,7 @@
         <v>83</v>
       </c>
       <c r="O36">
-        <v>3226</v>
+        <v>3232</v>
       </c>
       <c r="P36" t="s">
         <v>148</v>
@@ -6856,7 +6856,7 @@
         <v>84</v>
       </c>
       <c r="O37">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="P37" t="s">
         <v>149</v>
@@ -7011,7 +7011,7 @@
         <v>85</v>
       </c>
       <c r="O38">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="P38" t="s">
         <v>150</v>
@@ -7166,7 +7166,7 @@
         <v>86</v>
       </c>
       <c r="O39">
-        <v>3758</v>
+        <v>3764</v>
       </c>
       <c r="P39" t="s">
         <v>151</v>
@@ -7321,7 +7321,7 @@
         <v>87</v>
       </c>
       <c r="O40">
-        <v>3485</v>
+        <v>3491</v>
       </c>
       <c r="P40" t="s">
         <v>152</v>
@@ -7476,7 +7476,7 @@
         <v>88</v>
       </c>
       <c r="O41">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="P41" t="s">
         <v>153</v>
@@ -7631,7 +7631,7 @@
         <v>89</v>
       </c>
       <c r="O42">
-        <v>3981</v>
+        <v>3987</v>
       </c>
       <c r="P42" t="s">
         <v>154</v>
@@ -7786,7 +7786,7 @@
         <v>90</v>
       </c>
       <c r="O43">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="P43" t="s">
         <v>155</v>
@@ -7941,7 +7941,7 @@
         <v>91</v>
       </c>
       <c r="O44">
-        <v>4134</v>
+        <v>4140</v>
       </c>
       <c r="P44" t="s">
         <v>156</v>
@@ -8096,7 +8096,7 @@
         <v>92</v>
       </c>
       <c r="O45">
-        <v>4775</v>
+        <v>4782</v>
       </c>
       <c r="P45" t="s">
         <v>157</v>
@@ -8251,7 +8251,7 @@
         <v>93</v>
       </c>
       <c r="O46">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="P46" t="s">
         <v>158</v>
@@ -8406,7 +8406,7 @@
         <v>94</v>
       </c>
       <c r="O47">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="P47" t="s">
         <v>159</v>
@@ -8558,7 +8558,7 @@
         <v>95</v>
       </c>
       <c r="O48">
-        <v>3209</v>
+        <v>3215</v>
       </c>
       <c r="P48" t="s">
         <v>160</v>
@@ -8713,7 +8713,7 @@
         <v>96</v>
       </c>
       <c r="O49">
-        <v>4060</v>
+        <v>4066</v>
       </c>
       <c r="P49" t="s">
         <v>161</v>
@@ -8859,7 +8859,7 @@
         <v>97</v>
       </c>
       <c r="O50">
-        <v>5118</v>
+        <v>5125</v>
       </c>
       <c r="P50" t="s">
         <v>162</v>
@@ -9291,7 +9291,7 @@
         <v>100</v>
       </c>
       <c r="O53">
-        <v>2330</v>
+        <v>2334</v>
       </c>
       <c r="P53" t="s">
         <v>165</v>
@@ -9434,7 +9434,7 @@
         <v>101</v>
       </c>
       <c r="O54">
-        <v>1706</v>
+        <v>1710</v>
       </c>
       <c r="P54" t="s">
         <v>166</v>
@@ -9714,7 +9714,7 @@
         <v>103</v>
       </c>
       <c r="O56">
-        <v>4606</v>
+        <v>4613</v>
       </c>
       <c r="P56" t="s">
         <v>168</v>
@@ -9851,7 +9851,7 @@
         <v>104</v>
       </c>
       <c r="O57">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="P57" t="s">
         <v>169</v>
@@ -9988,7 +9988,7 @@
         <v>104</v>
       </c>
       <c r="O58">
-        <v>1881</v>
+        <v>1885</v>
       </c>
       <c r="P58" t="s">
         <v>170</v>
@@ -10125,7 +10125,7 @@
         <v>105</v>
       </c>
       <c r="O59">
-        <v>2974</v>
+        <v>2979</v>
       </c>
       <c r="P59" t="s">
         <v>171</v>
@@ -10262,7 +10262,7 @@
         <v>106</v>
       </c>
       <c r="O60">
-        <v>5162</v>
+        <v>5169</v>
       </c>
       <c r="P60" t="s">
         <v>172</v>
@@ -10399,7 +10399,7 @@
         <v>107</v>
       </c>
       <c r="O61">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="P61" t="s">
         <v>173</v>
@@ -10536,7 +10536,7 @@
         <v>108</v>
       </c>
       <c r="O62">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="P62" t="s">
         <v>174</v>
@@ -10673,7 +10673,7 @@
         <v>109</v>
       </c>
       <c r="O63">
-        <v>4264</v>
+        <v>4271</v>
       </c>
       <c r="P63" t="s">
         <v>175</v>
@@ -10810,7 +10810,7 @@
         <v>110</v>
       </c>
       <c r="O64">
-        <v>5219</v>
+        <v>5226</v>
       </c>
       <c r="P64" t="s">
         <v>176</v>
@@ -10947,7 +10947,7 @@
         <v>111</v>
       </c>
       <c r="O65">
-        <v>2546</v>
+        <v>2551</v>
       </c>
       <c r="P65" t="s">
         <v>177</v>
@@ -11084,7 +11084,7 @@
         <v>112</v>
       </c>
       <c r="O66">
-        <v>1644</v>
+        <v>1647</v>
       </c>
       <c r="P66" t="s">
         <v>178</v>

--- a/nba_roy_winners.xlsx
+++ b/nba_roy_winners.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="284">
   <si>
     <t>season_ending_year_x</t>
   </si>
@@ -860,9 +860,6 @@
   </si>
   <si>
     <t>NBA</t>
-  </si>
-  <si>
-    <t>N/A - Stat tracked as of the 1973-74 NBA Season</t>
   </si>
   <si>
     <t>Yes</t>
@@ -1533,10 +1530,10 @@
         <v>214</v>
       </c>
       <c r="AW2" t="s">
+        <v>282</v>
+      </c>
+      <c r="AX2" t="s">
         <v>283</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>284</v>
       </c>
       <c r="AY2">
         <v>2024</v>
@@ -1688,10 +1685,10 @@
         <v>215</v>
       </c>
       <c r="AW3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY3">
         <v>2023</v>
@@ -1843,10 +1840,10 @@
         <v>216</v>
       </c>
       <c r="AW4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY4">
         <v>2022</v>
@@ -1998,10 +1995,10 @@
         <v>217</v>
       </c>
       <c r="AW5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY5">
         <v>2021</v>
@@ -2153,10 +2150,10 @@
         <v>218</v>
       </c>
       <c r="AW6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY6">
         <v>2020</v>
@@ -2308,10 +2305,10 @@
         <v>219</v>
       </c>
       <c r="AW7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY7">
         <v>2019</v>
@@ -2463,10 +2460,10 @@
         <v>220</v>
       </c>
       <c r="AW8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY8">
         <v>2018</v>
@@ -2618,10 +2615,10 @@
         <v>221</v>
       </c>
       <c r="AW9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY9">
         <v>2017</v>
@@ -2773,10 +2770,10 @@
         <v>222</v>
       </c>
       <c r="AW10" t="s">
+        <v>282</v>
+      </c>
+      <c r="AX10" t="s">
         <v>283</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>284</v>
       </c>
       <c r="AY10">
         <v>2016</v>
@@ -2928,10 +2925,10 @@
         <v>223</v>
       </c>
       <c r="AW11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY11">
         <v>2015</v>
@@ -3083,10 +3080,10 @@
         <v>224</v>
       </c>
       <c r="AW12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY12">
         <v>2014</v>
@@ -3238,10 +3235,10 @@
         <v>225</v>
       </c>
       <c r="AW13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY13">
         <v>2013</v>
@@ -3393,10 +3390,10 @@
         <v>226</v>
       </c>
       <c r="AW14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY14">
         <v>2012</v>
@@ -3548,10 +3545,10 @@
         <v>227</v>
       </c>
       <c r="AW15" t="s">
+        <v>282</v>
+      </c>
+      <c r="AX15" t="s">
         <v>283</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>284</v>
       </c>
       <c r="AY15">
         <v>2011</v>
@@ -3703,10 +3700,10 @@
         <v>228</v>
       </c>
       <c r="AW16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY16">
         <v>2010</v>
@@ -3858,10 +3855,10 @@
         <v>229</v>
       </c>
       <c r="AW17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY17">
         <v>2009</v>
@@ -4013,10 +4010,10 @@
         <v>230</v>
       </c>
       <c r="AW18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY18">
         <v>2008</v>
@@ -4168,10 +4165,10 @@
         <v>231</v>
       </c>
       <c r="AW19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY19">
         <v>2007</v>
@@ -4323,10 +4320,10 @@
         <v>232</v>
       </c>
       <c r="AW20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY20">
         <v>2006</v>
@@ -4478,10 +4475,10 @@
         <v>233</v>
       </c>
       <c r="AW21" t="s">
+        <v>282</v>
+      </c>
+      <c r="AX21" t="s">
         <v>283</v>
-      </c>
-      <c r="AX21" t="s">
-        <v>284</v>
       </c>
       <c r="AY21">
         <v>2005</v>
@@ -4633,10 +4630,10 @@
         <v>234</v>
       </c>
       <c r="AW22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY22">
         <v>2004</v>
@@ -4788,10 +4785,10 @@
         <v>235</v>
       </c>
       <c r="AW23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY23">
         <v>2003</v>
@@ -4943,10 +4940,10 @@
         <v>236</v>
       </c>
       <c r="AW24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY24">
         <v>2002</v>
@@ -5098,10 +5095,10 @@
         <v>237</v>
       </c>
       <c r="AW25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY25">
         <v>2001</v>
@@ -5253,10 +5250,10 @@
         <v>238</v>
       </c>
       <c r="AW26" t="s">
+        <v>282</v>
+      </c>
+      <c r="AX26" t="s">
         <v>283</v>
-      </c>
-      <c r="AX26" t="s">
-        <v>284</v>
       </c>
       <c r="AY26">
         <v>2000</v>
@@ -5408,10 +5405,10 @@
         <v>238</v>
       </c>
       <c r="AW27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY27">
         <v>2000</v>
@@ -5563,10 +5560,10 @@
         <v>239</v>
       </c>
       <c r="AW28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY28">
         <v>1999</v>
@@ -5718,10 +5715,10 @@
         <v>240</v>
       </c>
       <c r="AW29" t="s">
+        <v>282</v>
+      </c>
+      <c r="AX29" t="s">
         <v>283</v>
-      </c>
-      <c r="AX29" t="s">
-        <v>284</v>
       </c>
       <c r="AY29">
         <v>1998</v>
@@ -5873,10 +5870,10 @@
         <v>241</v>
       </c>
       <c r="AW30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY30">
         <v>1997</v>
@@ -6028,10 +6025,10 @@
         <v>242</v>
       </c>
       <c r="AW31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY31">
         <v>1996</v>
@@ -6183,10 +6180,10 @@
         <v>243</v>
       </c>
       <c r="AW32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY32">
         <v>1995</v>
@@ -6338,10 +6335,10 @@
         <v>243</v>
       </c>
       <c r="AW33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY33">
         <v>1995</v>
@@ -6493,10 +6490,10 @@
         <v>244</v>
       </c>
       <c r="AW34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY34">
         <v>1994</v>
@@ -6648,10 +6645,10 @@
         <v>245</v>
       </c>
       <c r="AW35" t="s">
+        <v>282</v>
+      </c>
+      <c r="AX35" t="s">
         <v>283</v>
-      </c>
-      <c r="AX35" t="s">
-        <v>284</v>
       </c>
       <c r="AY35">
         <v>1993</v>
@@ -6803,10 +6800,10 @@
         <v>246</v>
       </c>
       <c r="AW36" t="s">
+        <v>282</v>
+      </c>
+      <c r="AX36" t="s">
         <v>283</v>
-      </c>
-      <c r="AX36" t="s">
-        <v>284</v>
       </c>
       <c r="AY36">
         <v>1992</v>
@@ -6958,10 +6955,10 @@
         <v>247</v>
       </c>
       <c r="AW37" t="s">
+        <v>282</v>
+      </c>
+      <c r="AX37" t="s">
         <v>283</v>
-      </c>
-      <c r="AX37" t="s">
-        <v>284</v>
       </c>
       <c r="AY37">
         <v>1991</v>
@@ -7113,10 +7110,10 @@
         <v>248</v>
       </c>
       <c r="AW38" t="s">
+        <v>282</v>
+      </c>
+      <c r="AX38" t="s">
         <v>283</v>
-      </c>
-      <c r="AX38" t="s">
-        <v>284</v>
       </c>
       <c r="AY38">
         <v>1990</v>
@@ -7268,10 +7265,10 @@
         <v>249</v>
       </c>
       <c r="AW39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY39">
         <v>1989</v>
@@ -7423,10 +7420,10 @@
         <v>250</v>
       </c>
       <c r="AW40" t="s">
+        <v>282</v>
+      </c>
+      <c r="AX40" t="s">
         <v>283</v>
-      </c>
-      <c r="AX40" t="s">
-        <v>284</v>
       </c>
       <c r="AY40">
         <v>1988</v>
@@ -7578,10 +7575,10 @@
         <v>251</v>
       </c>
       <c r="AW41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY41">
         <v>1987</v>
@@ -7733,10 +7730,10 @@
         <v>252</v>
       </c>
       <c r="AW42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY42">
         <v>1986</v>
@@ -7888,10 +7885,10 @@
         <v>253</v>
       </c>
       <c r="AW43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY43">
         <v>1985</v>
@@ -8043,10 +8040,10 @@
         <v>254</v>
       </c>
       <c r="AW44" t="s">
+        <v>282</v>
+      </c>
+      <c r="AX44" t="s">
         <v>283</v>
-      </c>
-      <c r="AX44" t="s">
-        <v>284</v>
       </c>
       <c r="AY44">
         <v>1984</v>
@@ -8198,10 +8195,10 @@
         <v>255</v>
       </c>
       <c r="AW45" t="s">
+        <v>282</v>
+      </c>
+      <c r="AX45" t="s">
         <v>283</v>
-      </c>
-      <c r="AX45" t="s">
-        <v>284</v>
       </c>
       <c r="AY45">
         <v>1983</v>
@@ -8353,10 +8350,10 @@
         <v>256</v>
       </c>
       <c r="AW46" t="s">
+        <v>282</v>
+      </c>
+      <c r="AX46" t="s">
         <v>283</v>
-      </c>
-      <c r="AX46" t="s">
-        <v>284</v>
       </c>
       <c r="AY46">
         <v>1982</v>
@@ -8505,10 +8502,10 @@
         <v>257</v>
       </c>
       <c r="AW47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY47">
         <v>1981</v>
@@ -8660,10 +8657,10 @@
         <v>258</v>
       </c>
       <c r="AW48" t="s">
+        <v>282</v>
+      </c>
+      <c r="AX48" t="s">
         <v>283</v>
-      </c>
-      <c r="AX48" t="s">
-        <v>284</v>
       </c>
       <c r="AY48">
         <v>1980</v>
@@ -8806,10 +8803,10 @@
         <v>259</v>
       </c>
       <c r="AW49" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX49" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY49">
         <v>1979</v>
@@ -8952,10 +8949,10 @@
         <v>260</v>
       </c>
       <c r="AW50" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX50" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY50">
         <v>1978</v>
@@ -9095,10 +9092,10 @@
         <v>261</v>
       </c>
       <c r="AW51" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX51" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY51">
         <v>1977</v>
@@ -9238,10 +9235,10 @@
         <v>262</v>
       </c>
       <c r="AW52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY52">
         <v>1976</v>
@@ -9381,10 +9378,10 @@
         <v>263</v>
       </c>
       <c r="AW53" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX53" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY53">
         <v>1975</v>
@@ -9524,10 +9521,10 @@
         <v>264</v>
       </c>
       <c r="AW54" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX54" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY54">
         <v>1974</v>
@@ -9645,12 +9642,6 @@
       <c r="AP55">
         <v>1.7</v>
       </c>
-      <c r="AQ55" t="s">
-        <v>282</v>
-      </c>
-      <c r="AR55" t="s">
-        <v>282</v>
-      </c>
       <c r="AT55">
         <v>3.2</v>
       </c>
@@ -9661,10 +9652,10 @@
         <v>265</v>
       </c>
       <c r="AW55" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX55" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY55">
         <v>1973</v>
@@ -9782,12 +9773,6 @@
       <c r="AP56">
         <v>4.3</v>
       </c>
-      <c r="AQ56" t="s">
-        <v>282</v>
-      </c>
-      <c r="AR56" t="s">
-        <v>282</v>
-      </c>
       <c r="AT56">
         <v>2.3</v>
       </c>
@@ -9798,10 +9783,10 @@
         <v>266</v>
       </c>
       <c r="AW56" t="s">
+        <v>282</v>
+      </c>
+      <c r="AX56" t="s">
         <v>283</v>
-      </c>
-      <c r="AX56" t="s">
-        <v>284</v>
       </c>
       <c r="AY56">
         <v>1972</v>
@@ -9919,12 +9904,6 @@
       <c r="AP57">
         <v>2.8</v>
       </c>
-      <c r="AQ57" t="s">
-        <v>282</v>
-      </c>
-      <c r="AR57" t="s">
-        <v>282</v>
-      </c>
       <c r="AT57">
         <v>4.3</v>
       </c>
@@ -9935,10 +9914,10 @@
         <v>267</v>
       </c>
       <c r="AW57" t="s">
+        <v>282</v>
+      </c>
+      <c r="AX57" t="s">
         <v>283</v>
-      </c>
-      <c r="AX57" t="s">
-        <v>284</v>
       </c>
       <c r="AY57">
         <v>1971</v>
@@ -10056,12 +10035,6 @@
       <c r="AP58">
         <v>4.8</v>
       </c>
-      <c r="AQ58" t="s">
-        <v>282</v>
-      </c>
-      <c r="AR58" t="s">
-        <v>282</v>
-      </c>
       <c r="AT58">
         <v>2.4</v>
       </c>
@@ -10072,10 +10045,10 @@
         <v>267</v>
       </c>
       <c r="AW58" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX58" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY58">
         <v>1971</v>
@@ -10193,12 +10166,6 @@
       <c r="AP59">
         <v>4.1</v>
       </c>
-      <c r="AQ59" t="s">
-        <v>282</v>
-      </c>
-      <c r="AR59" t="s">
-        <v>282</v>
-      </c>
       <c r="AT59">
         <v>3.5</v>
       </c>
@@ -10209,10 +10176,10 @@
         <v>268</v>
       </c>
       <c r="AW59" t="s">
+        <v>282</v>
+      </c>
+      <c r="AX59" t="s">
         <v>283</v>
-      </c>
-      <c r="AX59" t="s">
-        <v>284</v>
       </c>
       <c r="AY59">
         <v>1970</v>
@@ -10330,12 +10297,6 @@
       <c r="AP60">
         <v>2.6</v>
       </c>
-      <c r="AQ60" t="s">
-        <v>282</v>
-      </c>
-      <c r="AR60" t="s">
-        <v>282</v>
-      </c>
       <c r="AT60">
         <v>3.4</v>
       </c>
@@ -10346,10 +10307,10 @@
         <v>269</v>
       </c>
       <c r="AW60" t="s">
+        <v>282</v>
+      </c>
+      <c r="AX60" t="s">
         <v>283</v>
-      </c>
-      <c r="AX60" t="s">
-        <v>284</v>
       </c>
       <c r="AY60">
         <v>1969</v>
@@ -10467,12 +10428,6 @@
       <c r="AP61">
         <v>4.3</v>
       </c>
-      <c r="AQ61" t="s">
-        <v>282</v>
-      </c>
-      <c r="AR61" t="s">
-        <v>282</v>
-      </c>
       <c r="AT61">
         <v>3.4</v>
       </c>
@@ -10483,10 +10438,10 @@
         <v>270</v>
       </c>
       <c r="AW61" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX61" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY61">
         <v>1968</v>
@@ -10604,12 +10559,6 @@
       <c r="AP62">
         <v>4.1</v>
       </c>
-      <c r="AQ62" t="s">
-        <v>282</v>
-      </c>
-      <c r="AR62" t="s">
-        <v>282</v>
-      </c>
       <c r="AT62">
         <v>2.7</v>
       </c>
@@ -10620,10 +10569,10 @@
         <v>271</v>
       </c>
       <c r="AW62" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AX62" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AY62">
         <v>1967</v>
@@ -10741,12 +10690,6 @@
       <c r="AP63">
         <v>2.2</v>
       </c>
-      <c r="AQ63" t="s">
-        <v>282</v>
-      </c>
-      <c r="AR63" t="s">
-        <v>282</v>
-      </c>
       <c r="AT63">
         <v>3.7</v>
       </c>
@@ -10757,10 +10700,10 @@
         <v>272</v>
       </c>
       <c r="AW63" t="s">
+        <v>282</v>
+      </c>
+      <c r="AX63" t="s">
         <v>283</v>
-      </c>
-      <c r="AX63" t="s">
-        <v>284</v>
       </c>
       <c r="AY63">
         <v>1966</v>
@@ -10878,12 +10821,6 @@
       <c r="AP64">
         <v>1.7</v>
       </c>
-      <c r="AQ64" t="s">
-        <v>282</v>
-      </c>
-      <c r="AR64" t="s">
-        <v>282</v>
-      </c>
       <c r="AT64">
         <v>4.2</v>
       </c>
@@ -10894,10 +10831,10 @@
         <v>273</v>
       </c>
       <c r="AW64" t="s">
+        <v>282</v>
+      </c>
+      <c r="AX64" t="s">
         <v>283</v>
-      </c>
-      <c r="AX64" t="s">
-        <v>284</v>
       </c>
       <c r="AY64">
         <v>1965</v>
@@ -11015,12 +10952,6 @@
       <c r="AP65">
         <v>2.6</v>
       </c>
-      <c r="AQ65" t="s">
-        <v>282</v>
-      </c>
-      <c r="AR65" t="s">
-        <v>282</v>
-      </c>
       <c r="AT65">
         <v>3.8</v>
       </c>
@@ -11031,10 +10962,10 @@
         <v>274</v>
       </c>
       <c r="AW65" t="s">
+        <v>282</v>
+      </c>
+      <c r="AX65" t="s">
         <v>283</v>
-      </c>
-      <c r="AX65" t="s">
-        <v>284</v>
       </c>
       <c r="AY65">
         <v>1964</v>
@@ -11152,12 +11083,6 @@
       <c r="AP66">
         <v>4.1</v>
       </c>
-      <c r="AQ66" t="s">
-        <v>282</v>
-      </c>
-      <c r="AR66" t="s">
-        <v>282</v>
-      </c>
       <c r="AT66">
         <v>3.9</v>
       </c>
@@ -11168,10 +11093,10 @@
         <v>275</v>
       </c>
       <c r="AW66" t="s">
+        <v>282</v>
+      </c>
+      <c r="AX66" t="s">
         <v>283</v>
-      </c>
-      <c r="AX66" t="s">
-        <v>284</v>
       </c>
       <c r="AY66">
         <v>1959</v>

--- a/nba_roy_winners.xlsx
+++ b/nba_roy_winners.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="294">
   <si>
     <t>season_ending_year_x</t>
   </si>
@@ -844,22 +844,52 @@
     <t>1958-59</t>
   </si>
   <si>
+    <t>PJ Dozier</t>
+  </si>
+  <si>
+    <t>Lamar Stevens</t>
+  </si>
+  <si>
+    <t>Luke Kornet</t>
+  </si>
+  <si>
+    <t>Bismack Biyombo</t>
+  </si>
+  <si>
+    <t>Malcolm Delaney</t>
+  </si>
+  <si>
+    <t>Demetris Nichols</t>
+  </si>
+  <si>
+    <t>Leandro Barbosa</t>
+  </si>
+  <si>
+    <t>Paul Pierce</t>
+  </si>
+  <si>
+    <t>Shawn Kemp</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
+    <t>SG</t>
+  </si>
+  <si>
     <t>PF</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
-    <t>SG</t>
-  </si>
-  <si>
     <t>SF</t>
   </si>
   <si>
     <t>NBA</t>
+  </si>
+  <si>
+    <t>ATL</t>
   </si>
   <si>
     <t>Yes</t>
@@ -1428,7 +1458,7 @@
         <v>51</v>
       </c>
       <c r="O2">
-        <v>5069</v>
+        <v>5067</v>
       </c>
       <c r="P2" t="s">
         <v>114</v>
@@ -1437,7 +1467,7 @@
         <v>2003</v>
       </c>
       <c r="R2" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="S2">
         <v>21</v>
@@ -1446,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="U2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V2" t="s">
         <v>179</v>
@@ -1530,10 +1560,10 @@
         <v>214</v>
       </c>
       <c r="AW2" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AX2" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY2">
         <v>2024</v>
@@ -1583,112 +1613,109 @@
         <v>52</v>
       </c>
       <c r="O3">
-        <v>3968</v>
+        <v>3964</v>
       </c>
       <c r="P3" t="s">
-        <v>115</v>
+        <v>276</v>
       </c>
       <c r="Q3">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="R3" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="S3">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="T3">
+        <v>6</v>
+      </c>
+      <c r="U3" t="s">
+        <v>290</v>
+      </c>
+      <c r="V3" t="s">
+        <v>191</v>
+      </c>
+      <c r="W3">
+        <v>16</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>4.9</v>
+      </c>
+      <c r="Z3">
+        <v>0.6</v>
+      </c>
+      <c r="AA3">
+        <v>2.1</v>
+      </c>
+      <c r="AB3">
+        <v>0.303</v>
+      </c>
+      <c r="AC3">
+        <v>0.1</v>
+      </c>
+      <c r="AD3">
         <v>1</v>
       </c>
-      <c r="U3" t="s">
-        <v>281</v>
-      </c>
-      <c r="V3" t="s">
-        <v>180</v>
-      </c>
-      <c r="W3">
-        <v>72</v>
-      </c>
-      <c r="X3">
-        <v>72</v>
-      </c>
-      <c r="Y3">
-        <v>33.8</v>
-      </c>
-      <c r="Z3">
-        <v>6.7</v>
-      </c>
-      <c r="AA3">
-        <v>15.6</v>
-      </c>
-      <c r="AB3">
-        <v>0.427</v>
-      </c>
-      <c r="AC3">
-        <v>1.2</v>
-      </c>
-      <c r="AD3">
-        <v>4</v>
-      </c>
       <c r="AE3">
-        <v>0.298</v>
+        <v>0.125</v>
       </c>
       <c r="AF3">
-        <v>5.5</v>
+        <v>0.5</v>
       </c>
       <c r="AG3">
-        <v>11.6</v>
+        <v>1.1</v>
       </c>
       <c r="AH3">
         <v>0.471</v>
       </c>
       <c r="AI3">
-        <v>0.465</v>
+        <v>0.333</v>
       </c>
       <c r="AJ3">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>7.4</v>
-      </c>
-      <c r="AL3">
-        <v>0.738</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="AN3">
-        <v>5.7</v>
+        <v>0.8</v>
       </c>
       <c r="AO3">
-        <v>6.9</v>
+        <v>0.9</v>
       </c>
       <c r="AP3">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="AQ3">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AR3">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS3">
-        <v>2.8</v>
+        <v>0.3</v>
       </c>
       <c r="AT3">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="AU3">
-        <v>20</v>
+        <v>1.4</v>
       </c>
       <c r="AV3" t="s">
         <v>215</v>
       </c>
       <c r="AW3" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX3" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY3">
         <v>2023</v>
@@ -1738,7 +1765,7 @@
         <v>53</v>
       </c>
       <c r="O4">
-        <v>4535</v>
+        <v>4534</v>
       </c>
       <c r="P4" t="s">
         <v>116</v>
@@ -1747,7 +1774,7 @@
         <v>2001</v>
       </c>
       <c r="R4" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="S4">
         <v>21</v>
@@ -1756,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="U4" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V4" t="s">
         <v>181</v>
@@ -1840,10 +1867,10 @@
         <v>216</v>
       </c>
       <c r="AW4" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX4" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY4">
         <v>2022</v>
@@ -1893,112 +1920,112 @@
         <v>54</v>
       </c>
       <c r="O5">
-        <v>3193</v>
+        <v>3201</v>
       </c>
       <c r="P5" t="s">
-        <v>117</v>
+        <v>277</v>
       </c>
       <c r="Q5">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="R5" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="S5">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="T5">
         <v>1</v>
       </c>
       <c r="U5" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V5" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="W5">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="X5">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>28.8</v>
+        <v>12.5</v>
       </c>
       <c r="Z5">
-        <v>5.7</v>
+        <v>1.6</v>
       </c>
       <c r="AA5">
-        <v>13.2</v>
+        <v>3.4</v>
       </c>
       <c r="AB5">
-        <v>0.436</v>
+        <v>0.456</v>
       </c>
       <c r="AC5">
+        <v>0.1</v>
+      </c>
+      <c r="AD5">
+        <v>0.6</v>
+      </c>
+      <c r="AE5">
+        <v>0.16</v>
+      </c>
+      <c r="AF5">
+        <v>1.5</v>
+      </c>
+      <c r="AG5">
+        <v>2.8</v>
+      </c>
+      <c r="AH5">
+        <v>0.523</v>
+      </c>
+      <c r="AI5">
+        <v>0.471</v>
+      </c>
+      <c r="AJ5">
+        <v>0.9</v>
+      </c>
+      <c r="AK5">
+        <v>1.3</v>
+      </c>
+      <c r="AL5">
+        <v>0.725</v>
+      </c>
+      <c r="AM5">
+        <v>0.6</v>
+      </c>
+      <c r="AN5">
         <v>1.8</v>
       </c>
-      <c r="AD5">
-        <v>5.1</v>
-      </c>
-      <c r="AE5">
-        <v>0.352</v>
-      </c>
-      <c r="AF5">
-        <v>3.9</v>
-      </c>
-      <c r="AG5">
-        <v>8.1</v>
-      </c>
-      <c r="AH5">
-        <v>0.489</v>
-      </c>
-      <c r="AI5">
-        <v>0.504</v>
-      </c>
-      <c r="AJ5">
-        <v>2.5</v>
-      </c>
-      <c r="AK5">
-        <v>3.2</v>
-      </c>
-      <c r="AL5">
-        <v>0.758</v>
-      </c>
-      <c r="AM5">
-        <v>1.2</v>
-      </c>
-      <c r="AN5">
-        <v>4.7</v>
-      </c>
       <c r="AO5">
-        <v>5.9</v>
+        <v>2.4</v>
       </c>
       <c r="AP5">
-        <v>6.1</v>
+        <v>0.6</v>
       </c>
       <c r="AQ5">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="AR5">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AS5">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="AT5">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="AU5">
-        <v>15.7</v>
+        <v>4.1</v>
       </c>
       <c r="AV5" t="s">
         <v>217</v>
       </c>
       <c r="AW5" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX5" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY5">
         <v>2021</v>
@@ -2048,7 +2075,7 @@
         <v>55</v>
       </c>
       <c r="O6">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="P6" t="s">
         <v>118</v>
@@ -2057,7 +2084,7 @@
         <v>1999</v>
       </c>
       <c r="R6" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="S6">
         <v>21</v>
@@ -2066,7 +2093,7 @@
         <v>1</v>
       </c>
       <c r="U6" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V6" t="s">
         <v>183</v>
@@ -2150,10 +2177,10 @@
         <v>218</v>
       </c>
       <c r="AW6" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX6" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY6">
         <v>2020</v>
@@ -2203,112 +2230,112 @@
         <v>56</v>
       </c>
       <c r="O7">
-        <v>3378</v>
+        <v>3387</v>
       </c>
       <c r="P7" t="s">
-        <v>119</v>
+        <v>278</v>
       </c>
       <c r="Q7">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="R7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="S7">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7" t="s">
+        <v>290</v>
+      </c>
+      <c r="V7" t="s">
+        <v>202</v>
+      </c>
+      <c r="W7">
+        <v>46</v>
+      </c>
+      <c r="X7">
+        <v>18</v>
+      </c>
+      <c r="Y7">
+        <v>17</v>
+      </c>
+      <c r="Z7">
+        <v>2.3</v>
+      </c>
+      <c r="AA7">
+        <v>6.2</v>
+      </c>
+      <c r="AB7">
+        <v>0.378</v>
+      </c>
+      <c r="AC7">
+        <v>1.5</v>
+      </c>
+      <c r="AD7">
+        <v>4.2</v>
+      </c>
+      <c r="AE7">
+        <v>0.363</v>
+      </c>
+      <c r="AF7">
+        <v>0.8</v>
+      </c>
+      <c r="AG7">
+        <v>2</v>
+      </c>
+      <c r="AH7">
+        <v>0.411</v>
+      </c>
+      <c r="AI7">
+        <v>0.502</v>
+      </c>
+      <c r="AJ7">
+        <v>0.8</v>
+      </c>
+      <c r="AK7">
         <v>1</v>
       </c>
-      <c r="U7" t="s">
-        <v>281</v>
-      </c>
-      <c r="V7" t="s">
-        <v>184</v>
-      </c>
-      <c r="W7">
-        <v>72</v>
-      </c>
-      <c r="X7">
-        <v>72</v>
-      </c>
-      <c r="Y7">
-        <v>32.2</v>
-      </c>
-      <c r="Z7">
+      <c r="AL7">
+        <v>0.826</v>
+      </c>
+      <c r="AM7">
+        <v>0.6</v>
+      </c>
+      <c r="AN7">
+        <v>2.3</v>
+      </c>
+      <c r="AO7">
+        <v>2.9</v>
+      </c>
+      <c r="AP7">
+        <v>1.2</v>
+      </c>
+      <c r="AQ7">
+        <v>0.6</v>
+      </c>
+      <c r="AR7">
+        <v>0.9</v>
+      </c>
+      <c r="AS7">
+        <v>0.5</v>
+      </c>
+      <c r="AT7">
+        <v>0.9</v>
+      </c>
+      <c r="AU7">
         <v>7</v>
-      </c>
-      <c r="AA7">
-        <v>16.5</v>
-      </c>
-      <c r="AB7">
-        <v>0.427</v>
-      </c>
-      <c r="AC7">
-        <v>2.3</v>
-      </c>
-      <c r="AD7">
-        <v>7.1</v>
-      </c>
-      <c r="AE7">
-        <v>0.327</v>
-      </c>
-      <c r="AF7">
-        <v>4.7</v>
-      </c>
-      <c r="AG7">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AH7">
-        <v>0.503</v>
-      </c>
-      <c r="AI7">
-        <v>0.497</v>
-      </c>
-      <c r="AJ7">
-        <v>4.8</v>
-      </c>
-      <c r="AK7">
-        <v>6.7</v>
-      </c>
-      <c r="AL7">
-        <v>0.713</v>
-      </c>
-      <c r="AM7">
-        <v>1.2</v>
-      </c>
-      <c r="AN7">
-        <v>6.6</v>
-      </c>
-      <c r="AO7">
-        <v>7.8</v>
-      </c>
-      <c r="AP7">
-        <v>6</v>
-      </c>
-      <c r="AQ7">
-        <v>1.1</v>
-      </c>
-      <c r="AR7">
-        <v>0.3</v>
-      </c>
-      <c r="AS7">
-        <v>3.4</v>
-      </c>
-      <c r="AT7">
-        <v>1.9</v>
-      </c>
-      <c r="AU7">
-        <v>21.2</v>
       </c>
       <c r="AV7" t="s">
         <v>219</v>
       </c>
       <c r="AW7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY7">
         <v>2019</v>
@@ -2358,112 +2385,112 @@
         <v>57</v>
       </c>
       <c r="O8">
-        <v>354</v>
+        <v>446</v>
       </c>
       <c r="P8" t="s">
-        <v>120</v>
+        <v>279</v>
       </c>
       <c r="Q8">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="R8" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="S8">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U8" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="W8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X8">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="Y8">
-        <v>33.7</v>
+        <v>18.2</v>
       </c>
       <c r="Z8">
-        <v>6.7</v>
+        <v>2.2</v>
       </c>
       <c r="AA8">
-        <v>12.3</v>
+        <v>4.3</v>
       </c>
       <c r="AB8">
-        <v>0.545</v>
+        <v>0.52</v>
       </c>
       <c r="AC8">
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>6.7</v>
+        <v>2.2</v>
       </c>
       <c r="AG8">
-        <v>12.2</v>
+        <v>4.3</v>
       </c>
       <c r="AH8">
-        <v>0.551</v>
+        <v>0.521</v>
       </c>
       <c r="AI8">
-        <v>0.545</v>
+        <v>0.52</v>
       </c>
       <c r="AJ8">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="AK8">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="AL8">
-        <v>0.5600000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="AM8">
         <v>1.8</v>
       </c>
       <c r="AN8">
-        <v>6.3</v>
+        <v>4</v>
       </c>
       <c r="AO8">
-        <v>8.1</v>
+        <v>5.7</v>
       </c>
       <c r="AP8">
-        <v>8.199999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AQ8">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="AR8">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AS8">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="AT8">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="AU8">
-        <v>15.8</v>
+        <v>5.7</v>
       </c>
       <c r="AV8" t="s">
         <v>220</v>
       </c>
       <c r="AW8" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX8" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY8">
         <v>2018</v>
@@ -2513,112 +2540,112 @@
         <v>58</v>
       </c>
       <c r="O9">
-        <v>3418</v>
+        <v>3421</v>
       </c>
       <c r="P9" t="s">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="Q9">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="R9" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="S9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="T9">
         <v>1</v>
       </c>
       <c r="U9" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V9" t="s">
-        <v>186</v>
+        <v>291</v>
       </c>
       <c r="W9">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="X9">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="Y9">
-        <v>26.4</v>
+        <v>17.1</v>
       </c>
       <c r="Z9">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="AA9">
-        <v>8.5</v>
+        <v>5.3</v>
       </c>
       <c r="AB9">
-        <v>0.457</v>
+        <v>0.374</v>
       </c>
       <c r="AC9">
+        <v>0.4</v>
+      </c>
+      <c r="AD9">
+        <v>1.5</v>
+      </c>
+      <c r="AE9">
+        <v>0.236</v>
+      </c>
+      <c r="AF9">
+        <v>1.6</v>
+      </c>
+      <c r="AG9">
+        <v>3.8</v>
+      </c>
+      <c r="AH9">
+        <v>0.428</v>
+      </c>
+      <c r="AI9">
+        <v>0.407</v>
+      </c>
+      <c r="AJ9">
         <v>1</v>
       </c>
-      <c r="AD9">
+      <c r="AK9">
+        <v>1.3</v>
+      </c>
+      <c r="AL9">
+        <v>0.806</v>
+      </c>
+      <c r="AM9">
+        <v>0.1</v>
+      </c>
+      <c r="AN9">
+        <v>1.5</v>
+      </c>
+      <c r="AO9">
+        <v>1.7</v>
+      </c>
+      <c r="AP9">
         <v>2.6</v>
       </c>
-      <c r="AE9">
-        <v>0.404</v>
-      </c>
-      <c r="AF9">
-        <v>2.8</v>
-      </c>
-      <c r="AG9">
-        <v>5.9</v>
-      </c>
-      <c r="AH9">
-        <v>0.48</v>
-      </c>
-      <c r="AI9">
-        <v>0.518</v>
-      </c>
-      <c r="AJ9">
+      <c r="AQ9">
+        <v>0.5</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>1.3</v>
+      </c>
+      <c r="AT9">
         <v>1.5</v>
       </c>
-      <c r="AK9">
-        <v>1.7</v>
-      </c>
-      <c r="AL9">
-        <v>0.865</v>
-      </c>
-      <c r="AM9">
-        <v>0.6</v>
-      </c>
-      <c r="AN9">
-        <v>2.2</v>
-      </c>
-      <c r="AO9">
-        <v>2.8</v>
-      </c>
-      <c r="AP9">
-        <v>4.2</v>
-      </c>
-      <c r="AQ9">
-        <v>1.1</v>
-      </c>
-      <c r="AR9">
-        <v>0.2</v>
-      </c>
-      <c r="AS9">
-        <v>1.5</v>
-      </c>
-      <c r="AT9">
-        <v>1.9</v>
-      </c>
       <c r="AU9">
-        <v>10.2</v>
+        <v>5.4</v>
       </c>
       <c r="AV9" t="s">
         <v>221</v>
       </c>
       <c r="AW9" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX9" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY9">
         <v>2017</v>
@@ -2677,7 +2704,7 @@
         <v>1995</v>
       </c>
       <c r="R10" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="S10">
         <v>21</v>
@@ -2686,7 +2713,7 @@
         <v>1</v>
       </c>
       <c r="U10" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V10" t="s">
         <v>187</v>
@@ -2770,10 +2797,10 @@
         <v>222</v>
       </c>
       <c r="AW10" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AX10" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY10">
         <v>2016</v>
@@ -2823,7 +2850,7 @@
         <v>60</v>
       </c>
       <c r="O11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P11" t="s">
         <v>123</v>
@@ -2832,7 +2859,7 @@
         <v>1995</v>
       </c>
       <c r="R11" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="S11">
         <v>20</v>
@@ -2841,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="U11" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V11" t="s">
         <v>187</v>
@@ -2925,10 +2952,10 @@
         <v>223</v>
       </c>
       <c r="AW11" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX11" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY11">
         <v>2015</v>
@@ -2978,7 +3005,7 @@
         <v>61</v>
       </c>
       <c r="O12">
-        <v>3637</v>
+        <v>3638</v>
       </c>
       <c r="P12" t="s">
         <v>124</v>
@@ -2987,7 +3014,7 @@
         <v>1991</v>
       </c>
       <c r="R12" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="S12">
         <v>23</v>
@@ -2996,7 +3023,7 @@
         <v>1</v>
       </c>
       <c r="U12" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V12" t="s">
         <v>185</v>
@@ -3080,10 +3107,10 @@
         <v>224</v>
       </c>
       <c r="AW12" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX12" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY12">
         <v>2014</v>
@@ -3133,7 +3160,7 @@
         <v>62</v>
       </c>
       <c r="O13">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="P13" t="s">
         <v>125</v>
@@ -3142,7 +3169,7 @@
         <v>1990</v>
       </c>
       <c r="R13" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="S13">
         <v>23</v>
@@ -3151,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="U13" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V13" t="s">
         <v>188</v>
@@ -3235,10 +3262,10 @@
         <v>225</v>
       </c>
       <c r="AW13" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX13" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY13">
         <v>2013</v>
@@ -3288,7 +3315,7 @@
         <v>63</v>
       </c>
       <c r="O14">
-        <v>3188</v>
+        <v>3189</v>
       </c>
       <c r="P14" t="s">
         <v>126</v>
@@ -3297,7 +3324,7 @@
         <v>1992</v>
       </c>
       <c r="R14" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="S14">
         <v>20</v>
@@ -3306,7 +3333,7 @@
         <v>1</v>
       </c>
       <c r="U14" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V14" t="s">
         <v>189</v>
@@ -3390,10 +3417,10 @@
         <v>226</v>
       </c>
       <c r="AW14" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX14" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY14">
         <v>2012</v>
@@ -3443,7 +3470,7 @@
         <v>64</v>
       </c>
       <c r="O15">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="P15" t="s">
         <v>127</v>
@@ -3452,7 +3479,7 @@
         <v>1989</v>
       </c>
       <c r="R15" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="S15">
         <v>22</v>
@@ -3461,7 +3488,7 @@
         <v>1</v>
       </c>
       <c r="U15" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V15" t="s">
         <v>190</v>
@@ -3545,10 +3572,10 @@
         <v>227</v>
       </c>
       <c r="AW15" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AX15" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY15">
         <v>2011</v>
@@ -3598,7 +3625,7 @@
         <v>65</v>
       </c>
       <c r="O16">
-        <v>5028</v>
+        <v>5026</v>
       </c>
       <c r="P16" t="s">
         <v>128</v>
@@ -3607,7 +3634,7 @@
         <v>1989</v>
       </c>
       <c r="R16" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="S16">
         <v>21</v>
@@ -3616,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="U16" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V16" t="s">
         <v>191</v>
@@ -3700,10 +3727,10 @@
         <v>228</v>
       </c>
       <c r="AW16" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX16" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY16">
         <v>2010</v>
@@ -3753,112 +3780,109 @@
         <v>66</v>
       </c>
       <c r="O17">
-        <v>1346</v>
+        <v>1294</v>
       </c>
       <c r="P17" t="s">
-        <v>129</v>
+        <v>281</v>
       </c>
       <c r="Q17">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="R17" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="S17">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U17" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V17" t="s">
         <v>192</v>
       </c>
       <c r="W17">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="X17">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Y17">
-        <v>37</v>
+        <v>2.5</v>
       </c>
       <c r="Z17">
-        <v>7.1</v>
+        <v>0.5</v>
       </c>
       <c r="AA17">
-        <v>14.9</v>
+        <v>2</v>
       </c>
       <c r="AB17">
-        <v>0.475</v>
+        <v>0.25</v>
       </c>
       <c r="AC17">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD17">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="AE17">
-        <v>0.222</v>
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>6.9</v>
+        <v>0.5</v>
       </c>
       <c r="AG17">
-        <v>14</v>
+        <v>1.5</v>
       </c>
       <c r="AH17">
-        <v>0.491</v>
+        <v>0.333</v>
       </c>
       <c r="AI17">
-        <v>0.482</v>
+        <v>0.25</v>
       </c>
       <c r="AJ17">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AK17">
-        <v>3.1</v>
-      </c>
-      <c r="AL17">
-        <v>0.788</v>
+        <v>0</v>
       </c>
       <c r="AM17">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AN17">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AO17">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>6.3</v>
+        <v>0.5</v>
       </c>
       <c r="AQ17">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AR17">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AU17">
-        <v>16.8</v>
+        <v>1</v>
       </c>
       <c r="AV17" t="s">
         <v>229</v>
       </c>
       <c r="AW17" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX17" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY17">
         <v>2009</v>
@@ -3908,7 +3932,7 @@
         <v>67</v>
       </c>
       <c r="O18">
-        <v>3094</v>
+        <v>3095</v>
       </c>
       <c r="P18" t="s">
         <v>130</v>
@@ -3917,7 +3941,7 @@
         <v>1988</v>
       </c>
       <c r="R18" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="S18">
         <v>20</v>
@@ -3926,7 +3950,7 @@
         <v>1</v>
       </c>
       <c r="U18" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V18" t="s">
         <v>193</v>
@@ -4010,10 +4034,10 @@
         <v>230</v>
       </c>
       <c r="AW18" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX18" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY18">
         <v>2008</v>
@@ -4063,7 +4087,7 @@
         <v>68</v>
       </c>
       <c r="O19">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="P19" t="s">
         <v>131</v>
@@ -4072,7 +4096,7 @@
         <v>1984</v>
       </c>
       <c r="R19" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="S19">
         <v>23</v>
@@ -4081,7 +4105,7 @@
         <v>1</v>
       </c>
       <c r="U19" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V19" t="s">
         <v>188</v>
@@ -4165,10 +4189,10 @@
         <v>231</v>
       </c>
       <c r="AW19" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX19" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY19">
         <v>2007</v>
@@ -4218,7 +4242,7 @@
         <v>69</v>
       </c>
       <c r="O20">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="P20" t="s">
         <v>132</v>
@@ -4227,7 +4251,7 @@
         <v>1985</v>
       </c>
       <c r="R20" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="S20">
         <v>21</v>
@@ -4236,7 +4260,7 @@
         <v>1</v>
       </c>
       <c r="U20" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V20" t="s">
         <v>194</v>
@@ -4320,10 +4344,10 @@
         <v>232</v>
       </c>
       <c r="AW20" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX20" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY20">
         <v>2006</v>
@@ -4373,7 +4397,7 @@
         <v>70</v>
       </c>
       <c r="O21">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="P21" t="s">
         <v>133</v>
@@ -4382,7 +4406,7 @@
         <v>1982</v>
       </c>
       <c r="R21" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="S21">
         <v>23</v>
@@ -4391,7 +4415,7 @@
         <v>1</v>
       </c>
       <c r="U21" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V21" t="s">
         <v>195</v>
@@ -4475,10 +4499,10 @@
         <v>233</v>
       </c>
       <c r="AW21" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AX21" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY21">
         <v>2005</v>
@@ -4528,112 +4552,112 @@
         <v>71</v>
       </c>
       <c r="O22">
-        <v>3266</v>
+        <v>3270</v>
       </c>
       <c r="P22" t="s">
-        <v>134</v>
+        <v>282</v>
       </c>
       <c r="Q22">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="R22" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="S22">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T22">
         <v>1</v>
       </c>
       <c r="U22" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V22" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="W22">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="X22">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="Y22">
-        <v>39.5</v>
+        <v>21.4</v>
       </c>
       <c r="Z22">
+        <v>3</v>
+      </c>
+      <c r="AA22">
+        <v>6.7</v>
+      </c>
+      <c r="AB22">
+        <v>0.447</v>
+      </c>
+      <c r="AC22">
+        <v>1.2</v>
+      </c>
+      <c r="AD22">
+        <v>3</v>
+      </c>
+      <c r="AE22">
+        <v>0.395</v>
+      </c>
+      <c r="AF22">
+        <v>1.8</v>
+      </c>
+      <c r="AG22">
+        <v>3.7</v>
+      </c>
+      <c r="AH22">
+        <v>0.488</v>
+      </c>
+      <c r="AI22">
+        <v>0.535</v>
+      </c>
+      <c r="AJ22">
+        <v>0.7</v>
+      </c>
+      <c r="AK22">
+        <v>0.9</v>
+      </c>
+      <c r="AL22">
+        <v>0.77</v>
+      </c>
+      <c r="AM22">
+        <v>0.3</v>
+      </c>
+      <c r="AN22">
+        <v>1.4</v>
+      </c>
+      <c r="AO22">
+        <v>1.8</v>
+      </c>
+      <c r="AP22">
+        <v>2.4</v>
+      </c>
+      <c r="AQ22">
+        <v>1.3</v>
+      </c>
+      <c r="AR22">
+        <v>0.1</v>
+      </c>
+      <c r="AS22">
+        <v>1.7</v>
+      </c>
+      <c r="AT22">
+        <v>2.6</v>
+      </c>
+      <c r="AU22">
         <v>7.9</v>
-      </c>
-      <c r="AA22">
-        <v>18.9</v>
-      </c>
-      <c r="AB22">
-        <v>0.417</v>
-      </c>
-      <c r="AC22">
-        <v>0.8</v>
-      </c>
-      <c r="AD22">
-        <v>2.7</v>
-      </c>
-      <c r="AE22">
-        <v>0.29</v>
-      </c>
-      <c r="AF22">
-        <v>7.1</v>
-      </c>
-      <c r="AG22">
-        <v>16.1</v>
-      </c>
-      <c r="AH22">
-        <v>0.438</v>
-      </c>
-      <c r="AI22">
-        <v>0.438</v>
-      </c>
-      <c r="AJ22">
-        <v>4.4</v>
-      </c>
-      <c r="AK22">
-        <v>5.8</v>
-      </c>
-      <c r="AL22">
-        <v>0.754</v>
-      </c>
-      <c r="AM22">
-        <v>1.3</v>
-      </c>
-      <c r="AN22">
-        <v>4.2</v>
-      </c>
-      <c r="AO22">
-        <v>5.5</v>
-      </c>
-      <c r="AP22">
-        <v>5.9</v>
-      </c>
-      <c r="AQ22">
-        <v>1.6</v>
-      </c>
-      <c r="AR22">
-        <v>0.7</v>
-      </c>
-      <c r="AS22">
-        <v>3.5</v>
-      </c>
-      <c r="AT22">
-        <v>1.9</v>
-      </c>
-      <c r="AU22">
-        <v>20.9</v>
       </c>
       <c r="AV22" t="s">
         <v>234</v>
       </c>
       <c r="AW22" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX22" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY22">
         <v>2004</v>
@@ -4683,7 +4707,7 @@
         <v>72</v>
       </c>
       <c r="O23">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P23" t="s">
         <v>135</v>
@@ -4692,7 +4716,7 @@
         <v>1982</v>
       </c>
       <c r="R23" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="S23">
         <v>21</v>
@@ -4701,7 +4725,7 @@
         <v>1</v>
       </c>
       <c r="U23" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V23" t="s">
         <v>196</v>
@@ -4785,10 +4809,10 @@
         <v>235</v>
       </c>
       <c r="AW23" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX23" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY23">
         <v>2003</v>
@@ -4838,112 +4862,112 @@
         <v>73</v>
       </c>
       <c r="O24">
-        <v>3995</v>
+        <v>4017</v>
       </c>
       <c r="P24" t="s">
-        <v>136</v>
+        <v>283</v>
       </c>
       <c r="Q24">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="R24" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="S24">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U24" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V24" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="W24">
         <v>82</v>
       </c>
       <c r="X24">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Y24">
-        <v>36.7</v>
+        <v>40.3</v>
       </c>
       <c r="Z24">
-        <v>6.7</v>
+        <v>8.6</v>
       </c>
       <c r="AA24">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="AB24">
-        <v>0.518</v>
+        <v>0.442</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AD24">
-        <v>0.1</v>
+        <v>6.3</v>
       </c>
       <c r="AE24">
-        <v>0.2</v>
+        <v>0.404</v>
       </c>
       <c r="AF24">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="AG24">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="AH24">
-        <v>0.519</v>
+        <v>0.461</v>
       </c>
       <c r="AI24">
-        <v>0.518</v>
+        <v>0.508</v>
       </c>
       <c r="AJ24">
-        <v>4.1</v>
+        <v>6.3</v>
       </c>
       <c r="AK24">
-        <v>5.8</v>
+        <v>7.8</v>
       </c>
       <c r="AL24">
-        <v>0.709</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>5.9</v>
+      </c>
+      <c r="AO24">
+        <v>6.9</v>
+      </c>
+      <c r="AP24">
+        <v>3.2</v>
+      </c>
+      <c r="AQ24">
+        <v>1.9</v>
+      </c>
+      <c r="AR24">
+        <v>1</v>
+      </c>
+      <c r="AS24">
         <v>2.9</v>
       </c>
-      <c r="AN24">
-        <v>6</v>
-      </c>
-      <c r="AO24">
-        <v>8.9</v>
-      </c>
-      <c r="AP24">
-        <v>2.7</v>
-      </c>
-      <c r="AQ24">
-        <v>0.5</v>
-      </c>
-      <c r="AR24">
-        <v>2.1</v>
-      </c>
-      <c r="AS24">
-        <v>2.7</v>
-      </c>
       <c r="AT24">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="AU24">
-        <v>17.6</v>
+        <v>26.1</v>
       </c>
       <c r="AV24" t="s">
         <v>236</v>
       </c>
       <c r="AW24" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX24" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY24">
         <v>2002</v>
@@ -4993,7 +5017,7 @@
         <v>74</v>
       </c>
       <c r="O25">
-        <v>3715</v>
+        <v>3716</v>
       </c>
       <c r="P25" t="s">
         <v>137</v>
@@ -5002,7 +5026,7 @@
         <v>1980</v>
       </c>
       <c r="R25" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="S25">
         <v>21</v>
@@ -5011,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="U25" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V25" t="s">
         <v>180</v>
@@ -5095,10 +5119,10 @@
         <v>237</v>
       </c>
       <c r="AW25" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX25" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY25">
         <v>2001</v>
@@ -5148,7 +5172,7 @@
         <v>75</v>
       </c>
       <c r="O26">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="P26" t="s">
         <v>138</v>
@@ -5157,7 +5181,7 @@
         <v>1979</v>
       </c>
       <c r="R26" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="S26">
         <v>21</v>
@@ -5166,7 +5190,7 @@
         <v>1</v>
       </c>
       <c r="U26" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V26" t="s">
         <v>192</v>
@@ -5250,10 +5274,10 @@
         <v>238</v>
       </c>
       <c r="AW26" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AX26" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY26">
         <v>2000</v>
@@ -5303,7 +5327,7 @@
         <v>75</v>
       </c>
       <c r="O27">
-        <v>4694</v>
+        <v>4692</v>
       </c>
       <c r="P27" t="s">
         <v>139</v>
@@ -5312,7 +5336,7 @@
         <v>1977</v>
       </c>
       <c r="R27" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="S27">
         <v>23</v>
@@ -5321,7 +5345,7 @@
         <v>1</v>
       </c>
       <c r="U27" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V27" t="s">
         <v>197</v>
@@ -5405,10 +5429,10 @@
         <v>238</v>
       </c>
       <c r="AW27" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX27" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY27">
         <v>2000</v>
@@ -5458,7 +5482,7 @@
         <v>76</v>
       </c>
       <c r="O28">
-        <v>5073</v>
+        <v>5071</v>
       </c>
       <c r="P28" t="s">
         <v>140</v>
@@ -5467,7 +5491,7 @@
         <v>1976</v>
       </c>
       <c r="R28" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="S28">
         <v>23</v>
@@ -5476,7 +5500,7 @@
         <v>1</v>
       </c>
       <c r="U28" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V28" t="s">
         <v>181</v>
@@ -5560,10 +5584,10 @@
         <v>239</v>
       </c>
       <c r="AW28" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX28" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY28">
         <v>1999</v>
@@ -5613,7 +5637,7 @@
         <v>77</v>
       </c>
       <c r="O29">
-        <v>4823</v>
+        <v>4821</v>
       </c>
       <c r="P29" t="s">
         <v>141</v>
@@ -5622,7 +5646,7 @@
         <v>1976</v>
       </c>
       <c r="R29" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="S29">
         <v>22</v>
@@ -5631,7 +5655,7 @@
         <v>1</v>
       </c>
       <c r="U29" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V29" t="s">
         <v>179</v>
@@ -5715,10 +5739,10 @@
         <v>240</v>
       </c>
       <c r="AW29" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AX29" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY29">
         <v>1998</v>
@@ -5768,7 +5792,7 @@
         <v>78</v>
       </c>
       <c r="O30">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P30" t="s">
         <v>142</v>
@@ -5777,7 +5801,7 @@
         <v>1975</v>
       </c>
       <c r="R30" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="S30">
         <v>22</v>
@@ -5786,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="U30" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V30" t="s">
         <v>185</v>
@@ -5870,10 +5894,10 @@
         <v>241</v>
       </c>
       <c r="AW30" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX30" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY30">
         <v>1997</v>
@@ -5923,7 +5947,7 @@
         <v>79</v>
       </c>
       <c r="O31">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="P31" t="s">
         <v>143</v>
@@ -5932,7 +5956,7 @@
         <v>1973</v>
       </c>
       <c r="R31" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="S31">
         <v>23</v>
@@ -5941,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="U31" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V31" t="s">
         <v>181</v>
@@ -6025,10 +6049,10 @@
         <v>242</v>
       </c>
       <c r="AW31" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX31" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY31">
         <v>1996</v>
@@ -6078,7 +6102,7 @@
         <v>80</v>
       </c>
       <c r="O32">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="P32" t="s">
         <v>144</v>
@@ -6087,7 +6111,7 @@
         <v>1972</v>
       </c>
       <c r="R32" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="S32">
         <v>23</v>
@@ -6096,7 +6120,7 @@
         <v>1</v>
       </c>
       <c r="U32" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V32" t="s">
         <v>198</v>
@@ -6180,10 +6204,10 @@
         <v>243</v>
       </c>
       <c r="AW32" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX32" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY32">
         <v>1995</v>
@@ -6242,7 +6266,7 @@
         <v>1973</v>
       </c>
       <c r="R33" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="S33">
         <v>22</v>
@@ -6251,7 +6275,7 @@
         <v>1</v>
       </c>
       <c r="U33" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V33" t="s">
         <v>184</v>
@@ -6335,10 +6359,10 @@
         <v>243</v>
       </c>
       <c r="AW33" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX33" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY33">
         <v>1995</v>
@@ -6388,7 +6412,7 @@
         <v>81</v>
       </c>
       <c r="O34">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="P34" t="s">
         <v>146</v>
@@ -6397,7 +6421,7 @@
         <v>1973</v>
       </c>
       <c r="R34" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="S34">
         <v>21</v>
@@ -6406,7 +6430,7 @@
         <v>1</v>
       </c>
       <c r="U34" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V34" t="s">
         <v>199</v>
@@ -6490,10 +6514,10 @@
         <v>244</v>
       </c>
       <c r="AW34" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX34" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY34">
         <v>1994</v>
@@ -6543,112 +6567,112 @@
         <v>82</v>
       </c>
       <c r="O35">
-        <v>4582</v>
+        <v>4588</v>
       </c>
       <c r="P35" t="s">
-        <v>147</v>
+        <v>284</v>
       </c>
       <c r="Q35">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="R35" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="S35">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="T35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U35" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V35" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="W35">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="X35">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Y35">
-        <v>37.9</v>
+        <v>33.1</v>
       </c>
       <c r="Z35">
-        <v>9</v>
+        <v>6.6</v>
       </c>
       <c r="AA35">
-        <v>16.1</v>
+        <v>13.4</v>
       </c>
       <c r="AB35">
-        <v>0.5620000000000001</v>
+        <v>0.492</v>
       </c>
       <c r="AC35">
         <v>0</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AE35">
         <v>0</v>
       </c>
       <c r="AF35">
-        <v>9</v>
+        <v>6.6</v>
       </c>
       <c r="AG35">
-        <v>16.1</v>
+        <v>13.4</v>
       </c>
       <c r="AH35">
-        <v>0.5629999999999999</v>
+        <v>0.494</v>
       </c>
       <c r="AI35">
-        <v>0.5620000000000001</v>
+        <v>0.492</v>
       </c>
       <c r="AJ35">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="AK35">
-        <v>8.9</v>
+        <v>6.4</v>
       </c>
       <c r="AL35">
-        <v>0.592</v>
+        <v>0.712</v>
       </c>
       <c r="AM35">
+        <v>3.7</v>
+      </c>
+      <c r="AN35">
+        <v>7</v>
+      </c>
+      <c r="AO35">
+        <v>10.7</v>
+      </c>
+      <c r="AP35">
+        <v>2</v>
+      </c>
+      <c r="AQ35">
+        <v>1.5</v>
+      </c>
+      <c r="AR35">
+        <v>1.9</v>
+      </c>
+      <c r="AS35">
+        <v>2.8</v>
+      </c>
+      <c r="AT35">
         <v>4.2</v>
       </c>
-      <c r="AN35">
-        <v>9.6</v>
-      </c>
-      <c r="AO35">
-        <v>13.9</v>
-      </c>
-      <c r="AP35">
-        <v>1.9</v>
-      </c>
-      <c r="AQ35">
-        <v>0.7</v>
-      </c>
-      <c r="AR35">
-        <v>3.5</v>
-      </c>
-      <c r="AS35">
-        <v>3.8</v>
-      </c>
-      <c r="AT35">
-        <v>4</v>
-      </c>
       <c r="AU35">
-        <v>23.4</v>
+        <v>17.8</v>
       </c>
       <c r="AV35" t="s">
         <v>245</v>
       </c>
       <c r="AW35" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AX35" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY35">
         <v>1993</v>
@@ -6698,112 +6722,112 @@
         <v>83</v>
       </c>
       <c r="O36">
-        <v>3232</v>
+        <v>3216</v>
       </c>
       <c r="P36" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="Q36">
-        <v>1969</v>
+        <v>1956</v>
       </c>
       <c r="R36" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="S36">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="T36">
+        <v>13</v>
+      </c>
+      <c r="U36" t="s">
+        <v>290</v>
+      </c>
+      <c r="V36" t="s">
+        <v>206</v>
+      </c>
+      <c r="W36">
+        <v>45</v>
+      </c>
+      <c r="X36">
+        <v>45</v>
+      </c>
+      <c r="Y36">
+        <v>36.9</v>
+      </c>
+      <c r="Z36">
+        <v>7.8</v>
+      </c>
+      <c r="AA36">
+        <v>16.8</v>
+      </c>
+      <c r="AB36">
+        <v>0.466</v>
+      </c>
+      <c r="AC36">
+        <v>1.2</v>
+      </c>
+      <c r="AD36">
+        <v>2.8</v>
+      </c>
+      <c r="AE36">
+        <v>0.406</v>
+      </c>
+      <c r="AF36">
+        <v>6.7</v>
+      </c>
+      <c r="AG36">
+        <v>14</v>
+      </c>
+      <c r="AH36">
+        <v>0.478</v>
+      </c>
+      <c r="AI36">
+        <v>0.5</v>
+      </c>
+      <c r="AJ36">
+        <v>3.3</v>
+      </c>
+      <c r="AK36">
+        <v>3.6</v>
+      </c>
+      <c r="AL36">
+        <v>0.926</v>
+      </c>
+      <c r="AM36">
         <v>1</v>
       </c>
-      <c r="U36" t="s">
-        <v>281</v>
-      </c>
-      <c r="V36" t="s">
-        <v>200</v>
-      </c>
-      <c r="W36">
-        <v>82</v>
-      </c>
-      <c r="X36">
-        <v>77</v>
-      </c>
-      <c r="Y36">
-        <v>37.2</v>
-      </c>
-      <c r="Z36">
-        <v>7.5</v>
-      </c>
-      <c r="AA36">
-        <v>15.3</v>
-      </c>
-      <c r="AB36">
-        <v>0.49</v>
-      </c>
-      <c r="AC36">
-        <v>0.1</v>
-      </c>
-      <c r="AD36">
-        <v>0.3</v>
-      </c>
-      <c r="AE36">
-        <v>0.227</v>
-      </c>
-      <c r="AF36">
-        <v>7.5</v>
-      </c>
-      <c r="AG36">
-        <v>15.1</v>
-      </c>
-      <c r="AH36">
-        <v>0.494</v>
-      </c>
-      <c r="AI36">
-        <v>0.492</v>
-      </c>
-      <c r="AJ36">
-        <v>4.1</v>
-      </c>
-      <c r="AK36">
-        <v>5</v>
-      </c>
-      <c r="AL36">
-        <v>0.829</v>
-      </c>
-      <c r="AM36">
-        <v>3.9</v>
-      </c>
       <c r="AN36">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="AO36">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AP36">
-        <v>3.6</v>
+        <v>6.8</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR36">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AS36">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="AT36">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="AU36">
-        <v>19.2</v>
+        <v>20.2</v>
       </c>
       <c r="AV36" t="s">
         <v>246</v>
       </c>
       <c r="AW36" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="AX36" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY36">
         <v>1992</v>
@@ -6853,7 +6877,7 @@
         <v>84</v>
       </c>
       <c r="O37">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="P37" t="s">
         <v>149</v>
@@ -6862,7 +6886,7 @@
         <v>1967</v>
       </c>
       <c r="R37" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="S37">
         <v>24</v>
@@ -6871,7 +6895,7 @@
         <v>1</v>
       </c>
       <c r="U37" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V37" t="s">
         <v>201</v>
@@ -6955,10 +6979,10 @@
         <v>247</v>
       </c>
       <c r="AW37" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AX37" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY37">
         <v>1991</v>
@@ -7008,7 +7032,7 @@
         <v>85</v>
       </c>
       <c r="O38">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="P38" t="s">
         <v>150</v>
@@ -7017,7 +7041,7 @@
         <v>1965</v>
       </c>
       <c r="R38" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="S38">
         <v>25</v>
@@ -7026,7 +7050,7 @@
         <v>1</v>
       </c>
       <c r="U38" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V38" t="s">
         <v>179</v>
@@ -7110,10 +7134,10 @@
         <v>248</v>
       </c>
       <c r="AW38" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AX38" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY38">
         <v>1990</v>
@@ -7163,7 +7187,7 @@
         <v>86</v>
       </c>
       <c r="O39">
-        <v>3764</v>
+        <v>3765</v>
       </c>
       <c r="P39" t="s">
         <v>151</v>
@@ -7172,7 +7196,7 @@
         <v>1965</v>
       </c>
       <c r="R39" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="S39">
         <v>24</v>
@@ -7181,7 +7205,7 @@
         <v>1</v>
       </c>
       <c r="U39" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V39" t="s">
         <v>199</v>
@@ -7265,10 +7289,10 @@
         <v>249</v>
       </c>
       <c r="AW39" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX39" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY39">
         <v>1989</v>
@@ -7318,7 +7342,7 @@
         <v>87</v>
       </c>
       <c r="O40">
-        <v>3491</v>
+        <v>3492</v>
       </c>
       <c r="P40" t="s">
         <v>152</v>
@@ -7327,7 +7351,7 @@
         <v>1965</v>
       </c>
       <c r="R40" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="S40">
         <v>23</v>
@@ -7336,7 +7360,7 @@
         <v>1</v>
       </c>
       <c r="U40" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V40" t="s">
         <v>202</v>
@@ -7420,10 +7444,10 @@
         <v>250</v>
       </c>
       <c r="AW40" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AX40" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY40">
         <v>1988</v>
@@ -7473,7 +7497,7 @@
         <v>88</v>
       </c>
       <c r="O41">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="P41" t="s">
         <v>153</v>
@@ -7482,7 +7506,7 @@
         <v>1964</v>
       </c>
       <c r="R41" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="S41">
         <v>23</v>
@@ -7491,7 +7515,7 @@
         <v>1</v>
       </c>
       <c r="U41" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V41" t="s">
         <v>203</v>
@@ -7575,10 +7599,10 @@
         <v>251</v>
       </c>
       <c r="AW41" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX41" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY41">
         <v>1987</v>
@@ -7637,7 +7661,7 @@
         <v>1962</v>
       </c>
       <c r="R42" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="S42">
         <v>24</v>
@@ -7646,7 +7670,7 @@
         <v>1</v>
       </c>
       <c r="U42" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V42" t="s">
         <v>202</v>
@@ -7730,10 +7754,10 @@
         <v>252</v>
       </c>
       <c r="AW42" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX42" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY42">
         <v>1986</v>
@@ -7783,7 +7807,7 @@
         <v>90</v>
       </c>
       <c r="O43">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="P43" t="s">
         <v>155</v>
@@ -7792,7 +7816,7 @@
         <v>1963</v>
       </c>
       <c r="R43" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="S43">
         <v>22</v>
@@ -7801,7 +7825,7 @@
         <v>1</v>
       </c>
       <c r="U43" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V43" t="s">
         <v>192</v>
@@ -7885,10 +7909,10 @@
         <v>253</v>
       </c>
       <c r="AW43" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX43" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY43">
         <v>1985</v>
@@ -7947,7 +7971,7 @@
         <v>1960</v>
       </c>
       <c r="R44" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="S44">
         <v>24</v>
@@ -7956,7 +7980,7 @@
         <v>1</v>
       </c>
       <c r="U44" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V44" t="s">
         <v>197</v>
@@ -8040,10 +8064,10 @@
         <v>254</v>
       </c>
       <c r="AW44" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AX44" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY44">
         <v>1984</v>
@@ -8093,7 +8117,7 @@
         <v>92</v>
       </c>
       <c r="O45">
-        <v>4782</v>
+        <v>4780</v>
       </c>
       <c r="P45" t="s">
         <v>157</v>
@@ -8102,7 +8126,7 @@
         <v>1961</v>
       </c>
       <c r="R45" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="S45">
         <v>22</v>
@@ -8111,7 +8135,7 @@
         <v>1</v>
       </c>
       <c r="U45" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V45" t="s">
         <v>204</v>
@@ -8195,10 +8219,10 @@
         <v>255</v>
       </c>
       <c r="AW45" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AX45" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY45">
         <v>1983</v>
@@ -8248,7 +8272,7 @@
         <v>93</v>
       </c>
       <c r="O46">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="P46" t="s">
         <v>158</v>
@@ -8257,7 +8281,7 @@
         <v>1960</v>
       </c>
       <c r="R46" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="S46">
         <v>22</v>
@@ -8266,7 +8290,7 @@
         <v>1</v>
       </c>
       <c r="U46" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V46" t="s">
         <v>201</v>
@@ -8350,10 +8374,10 @@
         <v>256</v>
       </c>
       <c r="AW46" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AX46" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY46">
         <v>1982</v>
@@ -8412,7 +8436,7 @@
         <v>1958</v>
       </c>
       <c r="R47" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="S47">
         <v>23</v>
@@ -8421,7 +8445,7 @@
         <v>1</v>
       </c>
       <c r="U47" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V47" t="s">
         <v>205</v>
@@ -8502,10 +8526,10 @@
         <v>257</v>
       </c>
       <c r="AW47" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX47" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY47">
         <v>1981</v>
@@ -8555,7 +8579,7 @@
         <v>95</v>
       </c>
       <c r="O48">
-        <v>3215</v>
+        <v>3216</v>
       </c>
       <c r="P48" t="s">
         <v>160</v>
@@ -8564,7 +8588,7 @@
         <v>1956</v>
       </c>
       <c r="R48" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="S48">
         <v>24</v>
@@ -8573,7 +8597,7 @@
         <v>1</v>
       </c>
       <c r="U48" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V48" t="s">
         <v>206</v>
@@ -8657,10 +8681,10 @@
         <v>258</v>
       </c>
       <c r="AW48" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AX48" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY48">
         <v>1980</v>
@@ -8719,7 +8743,7 @@
         <v>1956</v>
       </c>
       <c r="R49" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="S49">
         <v>23</v>
@@ -8728,7 +8752,7 @@
         <v>1</v>
       </c>
       <c r="U49" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V49" t="s">
         <v>207</v>
@@ -8803,10 +8827,10 @@
         <v>259</v>
       </c>
       <c r="AW49" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX49" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY49">
         <v>1979</v>
@@ -8856,7 +8880,7 @@
         <v>97</v>
       </c>
       <c r="O50">
-        <v>5125</v>
+        <v>5123</v>
       </c>
       <c r="P50" t="s">
         <v>162</v>
@@ -8865,7 +8889,7 @@
         <v>1954</v>
       </c>
       <c r="R50" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="S50">
         <v>24</v>
@@ -8874,7 +8898,7 @@
         <v>1</v>
       </c>
       <c r="U50" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V50" t="s">
         <v>196</v>
@@ -8949,10 +8973,10 @@
         <v>260</v>
       </c>
       <c r="AW50" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX50" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY50">
         <v>1978</v>
@@ -9011,7 +9035,7 @@
         <v>1955</v>
       </c>
       <c r="R51" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="S51">
         <v>22</v>
@@ -9020,7 +9044,7 @@
         <v>1</v>
       </c>
       <c r="U51" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V51" t="s">
         <v>208</v>
@@ -9092,10 +9116,10 @@
         <v>261</v>
       </c>
       <c r="AW51" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX51" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY51">
         <v>1977</v>
@@ -9145,7 +9169,7 @@
         <v>99</v>
       </c>
       <c r="O52">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P52" t="s">
         <v>164</v>
@@ -9154,7 +9178,7 @@
         <v>1954</v>
       </c>
       <c r="R52" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="S52">
         <v>22</v>
@@ -9163,7 +9187,7 @@
         <v>1</v>
       </c>
       <c r="U52" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V52" t="s">
         <v>196</v>
@@ -9235,10 +9259,10 @@
         <v>262</v>
       </c>
       <c r="AW52" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX52" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY52">
         <v>1976</v>
@@ -9297,7 +9321,7 @@
         <v>1953</v>
       </c>
       <c r="R53" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="S53">
         <v>22</v>
@@ -9306,7 +9330,7 @@
         <v>1</v>
       </c>
       <c r="U53" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V53" t="s">
         <v>199</v>
@@ -9378,10 +9402,10 @@
         <v>263</v>
       </c>
       <c r="AW53" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX53" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY53">
         <v>1975</v>
@@ -9431,7 +9455,7 @@
         <v>101</v>
       </c>
       <c r="O54">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="P54" t="s">
         <v>166</v>
@@ -9440,7 +9464,7 @@
         <v>1950</v>
       </c>
       <c r="R54" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="S54">
         <v>24</v>
@@ -9449,7 +9473,7 @@
         <v>1</v>
       </c>
       <c r="U54" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V54" t="s">
         <v>208</v>
@@ -9521,10 +9545,10 @@
         <v>264</v>
       </c>
       <c r="AW54" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX54" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY54">
         <v>1974</v>
@@ -9574,7 +9598,7 @@
         <v>102</v>
       </c>
       <c r="O55">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="P55" t="s">
         <v>167</v>
@@ -9583,7 +9607,7 @@
         <v>1951</v>
       </c>
       <c r="R55" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="S55">
         <v>22</v>
@@ -9592,7 +9616,7 @@
         <v>1</v>
       </c>
       <c r="U55" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V55" t="s">
         <v>208</v>
@@ -9652,10 +9676,10 @@
         <v>265</v>
       </c>
       <c r="AW55" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX55" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY55">
         <v>1973</v>
@@ -9705,7 +9729,7 @@
         <v>103</v>
       </c>
       <c r="O56">
-        <v>4613</v>
+        <v>4611</v>
       </c>
       <c r="P56" t="s">
         <v>168</v>
@@ -9714,7 +9738,7 @@
         <v>1949</v>
       </c>
       <c r="R56" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="S56">
         <v>23</v>
@@ -9723,7 +9747,7 @@
         <v>1</v>
       </c>
       <c r="U56" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V56" t="s">
         <v>188</v>
@@ -9783,10 +9807,10 @@
         <v>266</v>
       </c>
       <c r="AW56" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AX56" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY56">
         <v>1972</v>
@@ -9845,7 +9869,7 @@
         <v>1948</v>
       </c>
       <c r="R57" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="S57">
         <v>23</v>
@@ -9854,7 +9878,7 @@
         <v>1</v>
       </c>
       <c r="U57" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V57" t="s">
         <v>206</v>
@@ -9914,10 +9938,10 @@
         <v>267</v>
       </c>
       <c r="AW57" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AX57" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY57">
         <v>1971</v>
@@ -9967,7 +9991,7 @@
         <v>104</v>
       </c>
       <c r="O58">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="P58" t="s">
         <v>170</v>
@@ -9976,7 +10000,7 @@
         <v>1948</v>
       </c>
       <c r="R58" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="S58">
         <v>23</v>
@@ -9985,7 +10009,7 @@
         <v>1</v>
       </c>
       <c r="U58" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V58" t="s">
         <v>188</v>
@@ -10045,10 +10069,10 @@
         <v>267</v>
       </c>
       <c r="AW58" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX58" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY58">
         <v>1971</v>
@@ -10107,7 +10131,7 @@
         <v>1947</v>
       </c>
       <c r="R59" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="S59">
         <v>23</v>
@@ -10116,7 +10140,7 @@
         <v>1</v>
       </c>
       <c r="U59" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V59" t="s">
         <v>186</v>
@@ -10176,10 +10200,10 @@
         <v>268</v>
       </c>
       <c r="AW59" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AX59" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY59">
         <v>1970</v>
@@ -10229,7 +10253,7 @@
         <v>106</v>
       </c>
       <c r="O60">
-        <v>5169</v>
+        <v>5167</v>
       </c>
       <c r="P60" t="s">
         <v>172</v>
@@ -10238,7 +10262,7 @@
         <v>1946</v>
       </c>
       <c r="R60" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="S60">
         <v>23</v>
@@ -10247,7 +10271,7 @@
         <v>1</v>
       </c>
       <c r="U60" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V60" t="s">
         <v>209</v>
@@ -10307,10 +10331,10 @@
         <v>269</v>
       </c>
       <c r="AW60" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AX60" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY60">
         <v>1969</v>
@@ -10360,7 +10384,7 @@
         <v>107</v>
       </c>
       <c r="O61">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="P61" t="s">
         <v>173</v>
@@ -10369,7 +10393,7 @@
         <v>1944</v>
       </c>
       <c r="R61" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="S61">
         <v>24</v>
@@ -10378,7 +10402,7 @@
         <v>1</v>
       </c>
       <c r="U61" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V61" t="s">
         <v>209</v>
@@ -10438,10 +10462,10 @@
         <v>270</v>
       </c>
       <c r="AW61" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX61" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY61">
         <v>1968</v>
@@ -10500,7 +10524,7 @@
         <v>1943</v>
       </c>
       <c r="R62" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="S62">
         <v>24</v>
@@ -10509,7 +10533,7 @@
         <v>1</v>
       </c>
       <c r="U62" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V62" t="s">
         <v>198</v>
@@ -10569,10 +10593,10 @@
         <v>271</v>
       </c>
       <c r="AW62" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AX62" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY62">
         <v>1967</v>
@@ -10631,7 +10655,7 @@
         <v>1944</v>
       </c>
       <c r="R63" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="S63">
         <v>22</v>
@@ -10640,7 +10664,7 @@
         <v>1</v>
       </c>
       <c r="U63" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V63" t="s">
         <v>210</v>
@@ -10700,10 +10724,10 @@
         <v>272</v>
       </c>
       <c r="AW63" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AX63" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY63">
         <v>1966</v>
@@ -10753,7 +10777,7 @@
         <v>110</v>
       </c>
       <c r="O64">
-        <v>5226</v>
+        <v>5224</v>
       </c>
       <c r="P64" t="s">
         <v>176</v>
@@ -10762,7 +10786,7 @@
         <v>1942</v>
       </c>
       <c r="R64" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="S64">
         <v>23</v>
@@ -10771,7 +10795,7 @@
         <v>1</v>
       </c>
       <c r="U64" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V64" t="s">
         <v>202</v>
@@ -10831,10 +10855,10 @@
         <v>273</v>
       </c>
       <c r="AW64" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AX64" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY64">
         <v>1965</v>
@@ -10893,7 +10917,7 @@
         <v>1940</v>
       </c>
       <c r="R65" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="S65">
         <v>24</v>
@@ -10902,7 +10926,7 @@
         <v>1</v>
       </c>
       <c r="U65" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V65" t="s">
         <v>211</v>
@@ -10962,10 +10986,10 @@
         <v>274</v>
       </c>
       <c r="AW65" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AX65" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY65">
         <v>1964</v>
@@ -11015,7 +11039,7 @@
         <v>112</v>
       </c>
       <c r="O66">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="P66" t="s">
         <v>178</v>
@@ -11024,7 +11048,7 @@
         <v>1934</v>
       </c>
       <c r="R66" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="S66">
         <v>25</v>
@@ -11033,7 +11057,7 @@
         <v>1</v>
       </c>
       <c r="U66" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V66" t="s">
         <v>212</v>
@@ -11093,10 +11117,10 @@
         <v>275</v>
       </c>
       <c r="AW66" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AX66" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AY66">
         <v>1959</v>
